--- a/GradeDistributionsDB/Spring2015/Output/Spring2015 GE.xlsx
+++ b/GradeDistributionsDB/Spring2015/Output/Spring2015 GE.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:workbookPr/>
-  <s:bookViews>
-    <s:workbookView activeTab="0"/>
-  </s:bookViews>
-  <s:sheets>
-    <s:sheet name="Sheet" sheetId="1" r:id="rId1"/>
-  </s:sheets>
-  <s:definedNames/>
-  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
-</s:workbook>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <bookViews>
+    <workbookView activeTab="0"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+  </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="556">
   <si>
     <t>Course</t>
   </si>
@@ -40,6 +40,9 @@
     <t>% of F's</t>
   </si>
   <si>
+    <t>% of Q Drop's</t>
+  </si>
+  <si>
     <t>ATMO-201</t>
   </si>
   <si>
@@ -61,6 +64,9 @@
     <t>2.13%</t>
   </si>
   <si>
+    <t>3.42%</t>
+  </si>
+  <si>
     <t>EPIFANIO C</t>
   </si>
   <si>
@@ -76,6 +82,9 @@
     <t>0.00%</t>
   </si>
   <si>
+    <t>8.16%</t>
+  </si>
+  <si>
     <t>LOGAN T</t>
   </si>
   <si>
@@ -88,6 +97,9 @@
     <t>2.94%</t>
   </si>
   <si>
+    <t>0.97%</t>
+  </si>
+  <si>
     <t>BOWMAN K</t>
   </si>
   <si>
@@ -97,6 +109,9 @@
     <t>39.53%</t>
   </si>
   <si>
+    <t>10.42%</t>
+  </si>
+  <si>
     <t>SCHUMACHER C</t>
   </si>
   <si>
@@ -136,6 +151,9 @@
     <t>1.27%</t>
   </si>
   <si>
+    <t>3.68%</t>
+  </si>
+  <si>
     <t>ATMO-203</t>
   </si>
   <si>
@@ -166,6 +184,9 @@
     <t>27.27%</t>
   </si>
   <si>
+    <t>8.33%</t>
+  </si>
+  <si>
     <t>ATMO-326</t>
   </si>
   <si>
@@ -175,9 +196,6 @@
     <t>91.67%</t>
   </si>
   <si>
-    <t>8.33%</t>
-  </si>
-  <si>
     <t>ATMO-352</t>
   </si>
   <si>
@@ -193,6 +211,9 @@
     <t>16.67%</t>
   </si>
   <si>
+    <t>4.00%</t>
+  </si>
+  <si>
     <t>ATMO-435</t>
   </si>
   <si>
@@ -331,6 +352,9 @@
     <t>4.48%</t>
   </si>
   <si>
+    <t>6.29%</t>
+  </si>
+  <si>
     <t>WALENTA J</t>
   </si>
   <si>
@@ -349,6 +373,9 @@
     <t>1.84%</t>
   </si>
   <si>
+    <t>3.55%</t>
+  </si>
+  <si>
     <t>EWERS M</t>
   </si>
   <si>
@@ -367,6 +394,9 @@
     <t>0.85%</t>
   </si>
   <si>
+    <t>1.67%</t>
+  </si>
+  <si>
     <t>GEOG-202</t>
   </si>
   <si>
@@ -388,6 +418,9 @@
     <t>1.23%</t>
   </si>
   <si>
+    <t>3.19%</t>
+  </si>
+  <si>
     <t>HUGILL P</t>
   </si>
   <si>
@@ -433,6 +466,9 @@
     <t>0.69%</t>
   </si>
   <si>
+    <t>2.02%</t>
+  </si>
+  <si>
     <t>GEOG-203</t>
   </si>
   <si>
@@ -454,6 +490,9 @@
     <t>2.65%</t>
   </si>
   <si>
+    <t>15.67%</t>
+  </si>
+  <si>
     <t>PETERU S</t>
   </si>
   <si>
@@ -463,6 +502,9 @@
     <t>19.05%</t>
   </si>
   <si>
+    <t>4.55%</t>
+  </si>
+  <si>
     <t>YUAN S</t>
   </si>
   <si>
@@ -478,6 +520,9 @@
     <t>11.36%</t>
   </si>
   <si>
+    <t>12.00%</t>
+  </si>
+  <si>
     <t>LAFON C</t>
   </si>
   <si>
@@ -496,6 +541,9 @@
     <t>2.90%</t>
   </si>
   <si>
+    <t>2.43%</t>
+  </si>
+  <si>
     <t>GUNERALP I</t>
   </si>
   <si>
@@ -526,6 +574,9 @@
     <t>2.33%</t>
   </si>
   <si>
+    <t>2.27%</t>
+  </si>
+  <si>
     <t>HOUSER C</t>
   </si>
   <si>
@@ -547,12 +598,12 @@
     <t>10.05%</t>
   </si>
   <si>
-    <t>1.67%</t>
-  </si>
-  <si>
     <t>2.63%</t>
   </si>
   <si>
+    <t>3.02%</t>
+  </si>
+  <si>
     <t>60.00%</t>
   </si>
   <si>
@@ -577,6 +628,9 @@
     <t>3.09%</t>
   </si>
   <si>
+    <t>4.90%</t>
+  </si>
+  <si>
     <t>GEOG-304</t>
   </si>
   <si>
@@ -613,6 +667,9 @@
     <t>1.12%</t>
   </si>
   <si>
+    <t>7.29%</t>
+  </si>
+  <si>
     <t>GEOG-306</t>
   </si>
   <si>
@@ -658,6 +715,9 @@
     <t>3.17%</t>
   </si>
   <si>
+    <t>7.35%</t>
+  </si>
+  <si>
     <t>GEOG-335</t>
   </si>
   <si>
@@ -673,6 +733,9 @@
     <t>42.55%</t>
   </si>
   <si>
+    <t>2.08%</t>
+  </si>
+  <si>
     <t>GEOG-352</t>
   </si>
   <si>
@@ -718,6 +781,9 @@
     <t>23.26%</t>
   </si>
   <si>
+    <t>14.85%</t>
+  </si>
+  <si>
     <t>GEOG-401</t>
   </si>
   <si>
@@ -853,6 +919,9 @@
     <t>0.77%</t>
   </si>
   <si>
+    <t>10.34%</t>
+  </si>
+  <si>
     <t>VAN B</t>
   </si>
   <si>
@@ -868,6 +937,9 @@
     <t>2.06%</t>
   </si>
   <si>
+    <t>10.19%</t>
+  </si>
+  <si>
     <t>BENAVIDES I</t>
   </si>
   <si>
@@ -883,6 +955,9 @@
     <t>1.75%</t>
   </si>
   <si>
+    <t>0.87%</t>
+  </si>
+  <si>
     <t>SCHROEDER C</t>
   </si>
   <si>
@@ -901,6 +976,9 @@
     <t>2.67%</t>
   </si>
   <si>
+    <t>1.96%</t>
+  </si>
+  <si>
     <t>GEOL-104</t>
   </si>
   <si>
@@ -916,6 +994,9 @@
     <t>9.78%</t>
   </si>
   <si>
+    <t>5.15%</t>
+  </si>
+  <si>
     <t>GEOL-106</t>
   </si>
   <si>
@@ -934,6 +1015,9 @@
     <t>7.60%</t>
   </si>
   <si>
+    <t>1.72%</t>
+  </si>
+  <si>
     <t>GEOL-203</t>
   </si>
   <si>
@@ -979,6 +1063,9 @@
     <t>0.91%</t>
   </si>
   <si>
+    <t>0.90%</t>
+  </si>
+  <si>
     <t>GEOL-305</t>
   </si>
   <si>
@@ -997,6 +1084,9 @@
     <t>6.90%</t>
   </si>
   <si>
+    <t>6.45%</t>
+  </si>
+  <si>
     <t>GEOL-306</t>
   </si>
   <si>
@@ -1012,6 +1102,9 @@
     <t>32.43%</t>
   </si>
   <si>
+    <t>11.90%</t>
+  </si>
+  <si>
     <t>EWING R</t>
   </si>
   <si>
@@ -1027,6 +1120,9 @@
     <t>2.04%</t>
   </si>
   <si>
+    <t>2.00%</t>
+  </si>
+  <si>
     <t>GEOL-309</t>
   </si>
   <si>
@@ -1060,6 +1156,9 @@
     <t>6.67%</t>
   </si>
   <si>
+    <t>11.76%</t>
+  </si>
+  <si>
     <t>41.18%</t>
   </si>
   <si>
@@ -1102,6 +1201,9 @@
     <t>25.93%</t>
   </si>
   <si>
+    <t>3.57%</t>
+  </si>
+  <si>
     <t>GEOL-330</t>
   </si>
   <si>
@@ -1135,6 +1237,9 @@
     <t>3.64%</t>
   </si>
   <si>
+    <t>3.51%</t>
+  </si>
+  <si>
     <t>GEOL-410</t>
   </si>
   <si>
@@ -1177,6 +1282,9 @@
     <t>SPARKS D</t>
   </si>
   <si>
+    <t>28.57%</t>
+  </si>
+  <si>
     <t>GEOL-491</t>
   </si>
   <si>
@@ -1285,6 +1393,9 @@
     <t>26.32%</t>
   </si>
   <si>
+    <t>5.00%</t>
+  </si>
+  <si>
     <t>70.83%</t>
   </si>
   <si>
@@ -1309,6 +1420,9 @@
     <t>10.26%</t>
   </si>
   <si>
+    <t>2.50%</t>
+  </si>
+  <si>
     <t>GEOS-442</t>
   </si>
   <si>
@@ -1342,6 +1456,9 @@
     <t>26.09%</t>
   </si>
   <si>
+    <t>6.12%</t>
+  </si>
+  <si>
     <t>BROOKS D</t>
   </si>
   <si>
@@ -1360,6 +1477,9 @@
     <t>1.46%</t>
   </si>
   <si>
+    <t>2.37%</t>
+  </si>
+  <si>
     <t>STOESSEL A</t>
   </si>
   <si>
@@ -1390,6 +1510,9 @@
     <t>1.10%</t>
   </si>
   <si>
+    <t>4.21%</t>
+  </si>
+  <si>
     <t>SHAMBERGER K</t>
   </si>
   <si>
@@ -1402,9 +1525,6 @@
     <t>15.79%</t>
   </si>
   <si>
-    <t>3.51%</t>
-  </si>
-  <si>
     <t>WIEDERWOHL C</t>
   </si>
   <si>
@@ -1420,6 +1540,9 @@
     <t>1.05%</t>
   </si>
   <si>
+    <t>3.06%</t>
+  </si>
+  <si>
     <t>20.59%</t>
   </si>
   <si>
@@ -1429,28 +1552,28 @@
     <t>4.41%</t>
   </si>
   <si>
+    <t>1.45%</t>
+  </si>
+  <si>
     <t>HERTZBERG J</t>
   </si>
   <si>
     <t>74.24%</t>
   </si>
   <si>
-    <t>4.55%</t>
-  </si>
-  <si>
     <t>3.03%</t>
   </si>
   <si>
+    <t>1.49%</t>
+  </si>
+  <si>
     <t>8.00%</t>
   </si>
   <si>
     <t>38.00%</t>
   </si>
   <si>
-    <t>12.00%</t>
-  </si>
-  <si>
-    <t>4.00%</t>
+    <t>12.28%</t>
   </si>
   <si>
     <t>OCNG-252</t>
@@ -1471,6 +1594,9 @@
     <t>0.96%</t>
   </si>
   <si>
+    <t>0.95%</t>
+  </si>
+  <si>
     <t>OCNG-401</t>
   </si>
   <si>
@@ -1499,6 +1625,9 @@
   </si>
   <si>
     <t>18.00%</t>
+  </si>
+  <si>
+    <t>5.66%</t>
   </si>
   <si>
     <t>OCNG-451</t>
@@ -1590,12 +1719,11 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
@@ -1889,15 +2017,15 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H341"/>
+  <dimension ref="A1:I341"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1922,3707 +2050,4127 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" t="n">
         <v>3.0217</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="B4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C4" t="n">
         <v>3.385</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="B5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C5" t="n">
         <v>3.785</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="B6" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C6" t="n">
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="B7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C7" t="n">
         <v>3.022</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G7" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="I7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="B10" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C10" t="n">
         <v>3.2224</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F10" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G10" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H10" t="s">
+        <v>44</v>
+      </c>
+      <c r="I10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="B13" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="B13" t="s">
-        <v>34</v>
       </c>
       <c r="C13" t="n">
         <v>3.286</v>
       </c>
       <c r="D13" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E13" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F13" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G13" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="H13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="B16" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C16" t="n">
         <v>3.364</v>
       </c>
       <c r="D16" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="E16" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="F16" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="G16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="B19" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C19" t="n">
         <v>2.917</v>
       </c>
       <c r="D19" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E19" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="F19" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G19" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="B22" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C22" t="n">
         <v>2.944</v>
       </c>
       <c r="D22" t="s">
+        <v>62</v>
+      </c>
+      <c r="E22" t="s">
+        <v>63</v>
+      </c>
+      <c r="F22" t="s">
+        <v>64</v>
+      </c>
+      <c r="G22" t="s">
         <v>56</v>
       </c>
-      <c r="E22" t="s">
-        <v>57</v>
-      </c>
-      <c r="F22" t="s">
-        <v>58</v>
-      </c>
-      <c r="G22" t="s">
-        <v>53</v>
-      </c>
       <c r="H22" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="B25" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C25" t="n">
         <v>3</v>
       </c>
       <c r="D25" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="E25" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="F25" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G25" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="H25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="B28" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C28" t="n">
         <v>3.059</v>
       </c>
       <c r="D28" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="E28" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="F28" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="G28" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H28" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="B31" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C31" t="n">
         <v>3.625</v>
       </c>
       <c r="D31" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="E31" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="F31" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G31" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H31" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I31" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="B34" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C34" t="n">
         <v>3.467</v>
       </c>
       <c r="D34" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E34" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F34" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G34" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H34" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I34" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="B37" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="C37" t="n">
         <v>3.818</v>
       </c>
       <c r="D37" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="E37" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="F37" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G37" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H37" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I37" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="B40" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C40" t="n">
         <v>3.583</v>
       </c>
       <c r="D40" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="E40" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="F40" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G40" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H40" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I40" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="B43" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C43" t="n">
         <v>4</v>
       </c>
       <c r="D43" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E43" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F43" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G43" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H43" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I43" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="B46" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C46" t="n">
         <v>4</v>
       </c>
       <c r="D46" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E46" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F46" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G46" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H46" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I46" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="B49" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="C49" t="n">
         <v>3.21</v>
       </c>
       <c r="D49" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="E49" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="F49" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="G49" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H49" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I49" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="B52" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="C52" t="n">
         <v>3.263</v>
       </c>
       <c r="D52" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="E52" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="F52" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="G52" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H52" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I52" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="B55" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="C55" t="n">
         <v>3.167</v>
       </c>
       <c r="D55" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="E55" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="F55" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="G55" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H55" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I55" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="B58" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="C58" t="n">
         <v>4</v>
       </c>
       <c r="D58" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E58" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F58" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G58" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H58" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I58" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="B61" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="C61" t="n">
         <v>2.403</v>
       </c>
       <c r="D61" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="E61" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="F61" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="G61" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="H61" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>109</v>
+      </c>
+      <c r="I61" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="B62" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="C62" t="n">
         <v>2.374</v>
       </c>
       <c r="D62" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="E62" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="F62" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="G62" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="H62" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>118</v>
+      </c>
+      <c r="I62" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="B63" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="C63" t="n">
         <v>3.186</v>
       </c>
       <c r="D63" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="E63" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="F63" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="G63" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="H63" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>125</v>
+      </c>
+      <c r="I63" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="B66" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="C66" t="n">
         <v>3.292</v>
       </c>
       <c r="D66" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="E66" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="F66" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="G66" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="H66" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>133</v>
+      </c>
+      <c r="I66" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="B67" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="C67" t="n">
         <v>2.609</v>
       </c>
       <c r="D67" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="E67" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="F67" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="G67" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="H67" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>140</v>
+      </c>
+      <c r="I67" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="B68" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="C68" t="n">
         <v>3.222</v>
       </c>
       <c r="D68" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="E68" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="F68" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="G68" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H68" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I68" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="B69" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="C69" t="n">
         <v>3.181</v>
       </c>
       <c r="D69" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="E69" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F69" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="G69" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="H69" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>149</v>
+      </c>
+      <c r="I69" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="B72" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="C72" t="n">
         <v>2.77</v>
       </c>
       <c r="D72" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="E72" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="F72" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="G72" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="H72" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>157</v>
+      </c>
+      <c r="I72" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="B73" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="C73" t="n">
         <v>2.667</v>
       </c>
       <c r="D73" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="E73" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F73" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="G73" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="H73" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I73" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="B74" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="C74" t="n">
         <v>2.704</v>
       </c>
       <c r="D74" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="E74" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="F74" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="G74" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="H74" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I74" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="B75" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="C75" t="n">
         <v>2.921</v>
       </c>
       <c r="D75" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="E75" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="F75" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="G75" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="H75" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>174</v>
+      </c>
+      <c r="I75" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="B76" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="C76" t="n">
         <v>2.545</v>
       </c>
       <c r="D76" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="E76" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="F76" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="G76" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="H76" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>181</v>
+      </c>
+      <c r="I76" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="B79" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="C79" t="n">
         <v>2.884</v>
       </c>
       <c r="D79" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="E79" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="F79" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="G79" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="H79" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>185</v>
+      </c>
+      <c r="I79" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="B80" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="C80" t="n">
         <v>3.878</v>
       </c>
       <c r="D80" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="E80" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="F80" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G80" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H80" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I80" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="B83" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="C83" t="n">
         <v>3.3413</v>
       </c>
       <c r="D83" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="E83" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="F83" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="G83" t="s">
-        <v>177</v>
+        <v>126</v>
       </c>
       <c r="H83" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>194</v>
+      </c>
+      <c r="I83" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="B84" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="C84" t="n">
         <v>3.4</v>
       </c>
       <c r="D84" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="E84" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="F84" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="G84" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H84" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I84" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="B87" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="C87" t="n">
         <v>2.722</v>
       </c>
       <c r="D87" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="E87" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="F87" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="G87" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="H87" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>203</v>
+      </c>
+      <c r="I87" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="B90" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="C90" t="n">
         <v>3.057</v>
       </c>
       <c r="D90" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="E90" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="F90" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="G90" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="H90" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>210</v>
+      </c>
+      <c r="I90" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="B93" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="C93" t="n">
         <v>2.989</v>
       </c>
       <c r="D93" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="E93" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="F93" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="G93" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="H93" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>216</v>
+      </c>
+      <c r="I93" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="B96" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="C96" t="n">
         <v>2.719</v>
       </c>
       <c r="D96" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="E96" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="F96" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="G96" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="H96" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>223</v>
+      </c>
+      <c r="I96" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="B99" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="C99" t="n">
         <v>2.778</v>
       </c>
       <c r="D99" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="E99" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="F99" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="G99" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="H99" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I99" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="B102" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="C102" t="n">
         <v>3.032</v>
       </c>
       <c r="D102" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="E102" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F102" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="G102" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="H102" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>232</v>
+      </c>
+      <c r="I102" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="B105" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="C105" t="n">
         <v>2.404</v>
       </c>
       <c r="D105" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="E105" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="F105" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
       <c r="G105" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="H105" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I105" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="B108" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="C108" t="n">
         <v>2.9</v>
       </c>
       <c r="D108" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="E108" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="F108" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="G108" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H108" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I108" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="B111" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="C111" t="n">
         <v>2.6</v>
       </c>
       <c r="D111" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="E111" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="F111" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
       <c r="G111" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
       <c r="H111" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>126</v>
+      </c>
+      <c r="I111" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="B114" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="C114" t="n">
         <v>3.864</v>
       </c>
       <c r="D114" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="E114" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="F114" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G114" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H114" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I114" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="B117" t="s">
-        <v>230</v>
+        <v>251</v>
       </c>
       <c r="C117" t="n">
         <v>2.6052</v>
       </c>
       <c r="D117" t="s">
-        <v>231</v>
+        <v>252</v>
       </c>
       <c r="E117" t="s">
-        <v>232</v>
+        <v>253</v>
       </c>
       <c r="F117" t="s">
-        <v>233</v>
+        <v>254</v>
       </c>
       <c r="G117" t="s">
-        <v>231</v>
+        <v>252</v>
       </c>
       <c r="H117" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>185</v>
+      </c>
+      <c r="I117" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="B120" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="C120" t="n">
         <v>2.683</v>
       </c>
       <c r="D120" t="s">
-        <v>235</v>
+        <v>257</v>
       </c>
       <c r="E120" t="s">
-        <v>236</v>
+        <v>258</v>
       </c>
       <c r="F120" t="s">
-        <v>237</v>
+        <v>259</v>
       </c>
       <c r="G120" t="s">
-        <v>238</v>
+        <v>260</v>
       </c>
       <c r="H120" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I120" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="B123" t="s">
-        <v>240</v>
+        <v>262</v>
       </c>
       <c r="C123" t="n">
         <v>3.5</v>
       </c>
       <c r="D123" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="E123" t="s">
-        <v>241</v>
+        <v>263</v>
       </c>
       <c r="F123" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G123" t="s">
-        <v>242</v>
+        <v>264</v>
       </c>
       <c r="H123" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I123" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="B126" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="C126" t="n">
         <v>3.5</v>
       </c>
       <c r="D126" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="E126" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="F126" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G126" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H126" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I126" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="B129" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="C129" t="n">
         <v>2.583</v>
       </c>
       <c r="D129" t="s">
+        <v>62</v>
+      </c>
+      <c r="E129" t="s">
+        <v>104</v>
+      </c>
+      <c r="F129" t="s">
+        <v>62</v>
+      </c>
+      <c r="G129" t="s">
         <v>56</v>
       </c>
-      <c r="E129" t="s">
-        <v>97</v>
-      </c>
-      <c r="F129" t="s">
+      <c r="H129" t="s">
         <v>56</v>
       </c>
-      <c r="G129" t="s">
-        <v>53</v>
-      </c>
-      <c r="H129" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+      <c r="I129" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="B132" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="C132" t="n">
         <v>2.857</v>
       </c>
       <c r="D132" t="s">
-        <v>246</v>
+        <v>268</v>
       </c>
       <c r="E132" t="s">
-        <v>247</v>
+        <v>269</v>
       </c>
       <c r="F132" t="s">
-        <v>248</v>
+        <v>270</v>
       </c>
       <c r="G132" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="H132" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>210</v>
+      </c>
+      <c r="I132" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="B135" t="s">
-        <v>250</v>
+        <v>272</v>
       </c>
       <c r="C135" t="n">
         <v>2.889</v>
       </c>
       <c r="D135" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="E135" t="s">
-        <v>251</v>
+        <v>273</v>
       </c>
       <c r="F135" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G135" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H135" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I135" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="B138" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="C138" t="n">
         <v>3.071</v>
       </c>
       <c r="D138" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="E138" t="s">
-        <v>253</v>
+        <v>275</v>
       </c>
       <c r="F138" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="G138" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="H138" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I138" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="B141" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="C141" t="n">
         <v>2.6047</v>
       </c>
       <c r="D141" t="s">
-        <v>257</v>
+        <v>279</v>
       </c>
       <c r="E141" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="F141" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="G141" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="H141" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I141" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="B144" t="s">
-        <v>260</v>
+        <v>282</v>
       </c>
       <c r="C144" t="n">
         <v>3.765</v>
       </c>
       <c r="D144" t="s">
-        <v>261</v>
+        <v>283</v>
       </c>
       <c r="E144" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F144" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G144" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H144" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>284</v>
+      </c>
+      <c r="I144" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="B147" t="s">
-        <v>260</v>
+        <v>282</v>
       </c>
       <c r="C147" t="n">
         <v>3.769</v>
       </c>
       <c r="D147" t="s">
-        <v>264</v>
+        <v>286</v>
       </c>
       <c r="E147" t="s">
-        <v>265</v>
+        <v>287</v>
       </c>
       <c r="F147" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G147" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H147" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I147" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="B150" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="C150" t="n">
         <v>4</v>
       </c>
       <c r="D150" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E150" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F150" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G150" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H150" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I150" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="B153" t="s">
-        <v>268</v>
+        <v>290</v>
       </c>
       <c r="C153" t="n">
         <v>3.625</v>
       </c>
       <c r="D153" t="s">
-        <v>269</v>
+        <v>291</v>
       </c>
       <c r="E153" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="F153" t="s">
-        <v>242</v>
+        <v>264</v>
       </c>
       <c r="G153" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H153" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I153" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="B156" t="s">
-        <v>230</v>
+        <v>251</v>
       </c>
       <c r="C156" t="n">
         <v>3.5</v>
       </c>
       <c r="D156" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="E156" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="F156" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G156" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H156" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I156" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="B159" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="C159" t="n">
         <v>3.219</v>
       </c>
       <c r="D159" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E159" t="s">
-        <v>272</v>
+        <v>294</v>
       </c>
       <c r="F159" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="G159" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H159" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I159" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="A161" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="B162" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="C162" t="n">
         <v>3.333</v>
       </c>
       <c r="D162" t="s">
-        <v>251</v>
+        <v>273</v>
       </c>
       <c r="E162" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F162" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G162" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="H162" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I162" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="B163" t="s">
-        <v>260</v>
+        <v>282</v>
       </c>
       <c r="C163" t="n">
         <v>4</v>
       </c>
       <c r="D163" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E163" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F163" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G163" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H163" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I163" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
       <c r="A165" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="B166" t="s">
-        <v>275</v>
+        <v>297</v>
       </c>
       <c r="C166" t="n">
         <v>2.7233</v>
       </c>
       <c r="D166" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="E166" t="s">
-        <v>247</v>
+        <v>269</v>
       </c>
       <c r="F166" t="s">
-        <v>276</v>
+        <v>298</v>
       </c>
       <c r="G166" t="s">
-        <v>277</v>
+        <v>299</v>
       </c>
       <c r="H166" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
+        <v>300</v>
+      </c>
+      <c r="I166" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
       <c r="B167" t="s">
-        <v>279</v>
+        <v>302</v>
       </c>
       <c r="C167" t="n">
         <v>2.7683</v>
       </c>
       <c r="D167" t="s">
-        <v>280</v>
+        <v>303</v>
       </c>
       <c r="E167" t="s">
-        <v>281</v>
+        <v>304</v>
       </c>
       <c r="F167" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="G167" t="s">
-        <v>282</v>
+        <v>305</v>
       </c>
       <c r="H167" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
+        <v>306</v>
+      </c>
+      <c r="I167" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
       <c r="B168" t="s">
-        <v>284</v>
+        <v>308</v>
       </c>
       <c r="C168" t="n">
         <v>3.3883</v>
       </c>
       <c r="D168" t="s">
-        <v>285</v>
+        <v>309</v>
       </c>
       <c r="E168" t="s">
-        <v>286</v>
+        <v>310</v>
       </c>
       <c r="F168" t="s">
-        <v>287</v>
+        <v>311</v>
       </c>
       <c r="G168" t="s">
-        <v>288</v>
+        <v>312</v>
       </c>
       <c r="H168" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I168" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
       <c r="B169" t="s">
-        <v>289</v>
+        <v>314</v>
       </c>
       <c r="C169" t="n">
         <v>2.7529</v>
       </c>
       <c r="D169" t="s">
-        <v>290</v>
+        <v>315</v>
       </c>
       <c r="E169" t="s">
-        <v>291</v>
+        <v>316</v>
       </c>
       <c r="F169" t="s">
-        <v>292</v>
+        <v>317</v>
       </c>
       <c r="G169" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
       <c r="H169" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
+        <v>319</v>
+      </c>
+      <c r="I169" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
       <c r="A171" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
       <c r="B172" t="s">
-        <v>296</v>
+        <v>322</v>
       </c>
       <c r="C172" t="n">
         <v>2.5958</v>
       </c>
       <c r="D172" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="E172" t="s">
-        <v>297</v>
+        <v>323</v>
       </c>
       <c r="F172" t="s">
-        <v>298</v>
+        <v>324</v>
       </c>
       <c r="G172" t="s">
-        <v>299</v>
+        <v>325</v>
       </c>
       <c r="H172" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
+        <v>140</v>
+      </c>
+      <c r="I172" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
       <c r="A174" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
       <c r="B175" t="s">
-        <v>301</v>
+        <v>328</v>
       </c>
       <c r="C175" t="n">
         <v>2.7283</v>
       </c>
       <c r="D175" t="s">
-        <v>302</v>
+        <v>329</v>
       </c>
       <c r="E175" t="s">
-        <v>303</v>
+        <v>330</v>
       </c>
       <c r="F175" t="s">
-        <v>304</v>
+        <v>331</v>
       </c>
       <c r="G175" t="s">
-        <v>305</v>
+        <v>332</v>
       </c>
       <c r="H175" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I175" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
       <c r="A177" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
       <c r="B178" t="s">
-        <v>307</v>
+        <v>335</v>
       </c>
       <c r="C178" t="n">
         <v>2.8705</v>
       </c>
       <c r="D178" t="s">
-        <v>308</v>
+        <v>336</v>
       </c>
       <c r="E178" t="s">
-        <v>309</v>
+        <v>337</v>
       </c>
       <c r="F178" t="s">
-        <v>310</v>
+        <v>338</v>
       </c>
       <c r="G178" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="H178" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I178" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
       <c r="A180" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
       <c r="B181" t="s">
-        <v>301</v>
+        <v>328</v>
       </c>
       <c r="C181" t="n">
         <v>4</v>
       </c>
       <c r="D181" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E181" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F181" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G181" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H181" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I181" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
       <c r="A183" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
       <c r="B184" t="s">
-        <v>313</v>
+        <v>341</v>
       </c>
       <c r="C184" t="n">
         <v>3.2</v>
       </c>
       <c r="D184" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="E184" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="F184" t="s">
-        <v>314</v>
+        <v>342</v>
       </c>
       <c r="G184" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H184" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I184" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
       <c r="A186" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
       <c r="B187" t="s">
-        <v>316</v>
+        <v>344</v>
       </c>
       <c r="C187" t="n">
         <v>2.6645</v>
       </c>
       <c r="D187" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="E187" t="s">
-        <v>317</v>
+        <v>345</v>
       </c>
       <c r="F187" t="s">
-        <v>318</v>
+        <v>346</v>
       </c>
       <c r="G187" t="s">
-        <v>319</v>
+        <v>347</v>
       </c>
       <c r="H187" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8">
+        <v>348</v>
+      </c>
+      <c r="I187" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9">
       <c r="A189" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
       <c r="B190" t="s">
-        <v>322</v>
+        <v>351</v>
       </c>
       <c r="C190" t="n">
         <v>2.5535</v>
       </c>
       <c r="D190" t="s">
-        <v>323</v>
+        <v>352</v>
       </c>
       <c r="E190" t="s">
-        <v>324</v>
+        <v>353</v>
       </c>
       <c r="F190" t="s">
-        <v>325</v>
+        <v>354</v>
       </c>
       <c r="G190" t="s">
-        <v>326</v>
+        <v>355</v>
       </c>
       <c r="H190" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8">
+        <v>355</v>
+      </c>
+      <c r="I190" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9">
       <c r="A192" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
       <c r="B193" t="s">
-        <v>328</v>
+        <v>358</v>
       </c>
       <c r="C193" t="n">
         <v>2.8577</v>
       </c>
       <c r="D193" t="s">
-        <v>329</v>
+        <v>359</v>
       </c>
       <c r="E193" t="s">
-        <v>330</v>
+        <v>360</v>
       </c>
       <c r="F193" t="s">
-        <v>331</v>
+        <v>361</v>
       </c>
       <c r="G193" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H193" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I193" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
       <c r="B194" t="s">
-        <v>332</v>
+        <v>363</v>
       </c>
       <c r="C194" t="n">
         <v>2.6757</v>
       </c>
       <c r="D194" t="s">
-        <v>333</v>
+        <v>364</v>
       </c>
       <c r="E194" t="s">
-        <v>334</v>
+        <v>365</v>
       </c>
       <c r="F194" t="s">
-        <v>335</v>
+        <v>366</v>
       </c>
       <c r="G194" t="s">
-        <v>336</v>
+        <v>367</v>
       </c>
       <c r="H194" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I194" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9">
       <c r="A196" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9">
       <c r="B197" t="s">
-        <v>338</v>
+        <v>370</v>
       </c>
       <c r="C197" t="n">
         <v>2.825</v>
       </c>
       <c r="D197" t="s">
-        <v>302</v>
+        <v>329</v>
       </c>
       <c r="E197" t="s">
-        <v>339</v>
+        <v>371</v>
       </c>
       <c r="F197" t="s">
-        <v>340</v>
+        <v>372</v>
       </c>
       <c r="G197" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="H197" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I197" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9">
       <c r="A199" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9">
       <c r="B200" t="s">
-        <v>342</v>
+        <v>374</v>
       </c>
       <c r="C200" t="n">
         <v>3.824</v>
       </c>
       <c r="D200" t="s">
-        <v>343</v>
+        <v>375</v>
       </c>
       <c r="E200" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="F200" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G200" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H200" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I200" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9">
       <c r="B201" t="s">
-        <v>344</v>
+        <v>376</v>
       </c>
       <c r="C201" t="n">
         <v>3.4</v>
       </c>
       <c r="D201" t="s">
-        <v>345</v>
+        <v>377</v>
       </c>
       <c r="E201" t="s">
-        <v>346</v>
+        <v>378</v>
       </c>
       <c r="F201" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G201" t="s">
-        <v>347</v>
+        <v>379</v>
       </c>
       <c r="H201" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8">
+        <v>379</v>
+      </c>
+      <c r="I201" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9">
       <c r="B202" t="s">
-        <v>289</v>
+        <v>314</v>
       </c>
       <c r="C202" t="n">
         <v>3.588</v>
       </c>
       <c r="D202" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="E202" t="s">
-        <v>348</v>
+        <v>381</v>
       </c>
       <c r="F202" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G202" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H202" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I202" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9">
       <c r="B203" t="s">
-        <v>349</v>
+        <v>382</v>
       </c>
       <c r="C203" t="n">
         <v>3.286</v>
       </c>
       <c r="D203" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="E203" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="F203" t="s">
-        <v>350</v>
+        <v>383</v>
       </c>
       <c r="G203" t="s">
-        <v>350</v>
+        <v>383</v>
       </c>
       <c r="H203" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I203" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9">
       <c r="B204" t="s">
-        <v>351</v>
+        <v>384</v>
       </c>
       <c r="C204" t="n">
         <v>3.929</v>
       </c>
       <c r="D204" t="s">
-        <v>352</v>
+        <v>385</v>
       </c>
       <c r="E204" t="s">
-        <v>350</v>
+        <v>383</v>
       </c>
       <c r="F204" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G204" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H204" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I204" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9">
       <c r="A206" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9">
       <c r="B207" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="C207" t="n">
         <v>2.8257</v>
       </c>
       <c r="D207" t="s">
-        <v>355</v>
+        <v>388</v>
       </c>
       <c r="E207" t="s">
-        <v>356</v>
+        <v>389</v>
       </c>
       <c r="F207" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G207" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="H207" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I207" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9">
       <c r="B208" t="s">
-        <v>357</v>
+        <v>390</v>
       </c>
       <c r="C208" t="n">
         <v>2.733</v>
       </c>
       <c r="D208" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="E208" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="F208" t="s">
-        <v>358</v>
+        <v>391</v>
       </c>
       <c r="G208" t="s">
-        <v>347</v>
+        <v>379</v>
       </c>
       <c r="H208" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I208" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9">
       <c r="A210" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9">
       <c r="B211" t="s">
-        <v>313</v>
+        <v>341</v>
       </c>
       <c r="C211" t="n">
         <v>3.7165</v>
       </c>
       <c r="D211" t="s">
-        <v>360</v>
+        <v>393</v>
       </c>
       <c r="E211" t="s">
-        <v>361</v>
+        <v>394</v>
       </c>
       <c r="F211" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G211" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H211" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I211" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9">
       <c r="A213" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9">
       <c r="B214" t="s">
-        <v>363</v>
+        <v>397</v>
       </c>
       <c r="C214" t="n">
         <v>3.562</v>
       </c>
       <c r="D214" t="s">
-        <v>364</v>
+        <v>398</v>
       </c>
       <c r="E214" t="s">
-        <v>365</v>
+        <v>399</v>
       </c>
       <c r="F214" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G214" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H214" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I214" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9">
       <c r="A216" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9">
       <c r="B217" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="C217" t="n">
         <v>2.944</v>
       </c>
       <c r="D217" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="E217" t="s">
-        <v>367</v>
+        <v>401</v>
       </c>
       <c r="F217" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G217" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="H217" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I217" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9">
       <c r="A219" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9">
       <c r="B220" t="s">
-        <v>369</v>
+        <v>403</v>
       </c>
       <c r="C220" t="n">
         <v>3.2095</v>
       </c>
       <c r="D220" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="E220" t="s">
-        <v>370</v>
+        <v>404</v>
       </c>
       <c r="F220" t="s">
-        <v>371</v>
+        <v>405</v>
       </c>
       <c r="G220" t="s">
-        <v>372</v>
+        <v>406</v>
       </c>
       <c r="H220" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8">
+        <v>348</v>
+      </c>
+      <c r="I220" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9">
       <c r="A222" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="223" spans="1:8">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9">
       <c r="B223" t="s">
-        <v>374</v>
+        <v>409</v>
       </c>
       <c r="C223" t="n">
         <v>2.467</v>
       </c>
       <c r="D223" t="s">
-        <v>346</v>
+        <v>378</v>
       </c>
       <c r="E223" t="s">
-        <v>375</v>
+        <v>410</v>
       </c>
       <c r="F223" t="s">
-        <v>376</v>
+        <v>411</v>
       </c>
       <c r="G223" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="H223" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="225" spans="1:8">
+        <v>379</v>
+      </c>
+      <c r="I223" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9">
       <c r="A225" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="226" spans="1:8">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9">
       <c r="B226" t="s">
-        <v>378</v>
+        <v>413</v>
       </c>
       <c r="C226" t="n">
         <v>2.9672</v>
       </c>
       <c r="D226" t="s">
-        <v>379</v>
+        <v>414</v>
       </c>
       <c r="E226" t="s">
-        <v>380</v>
+        <v>415</v>
       </c>
       <c r="F226" t="s">
-        <v>381</v>
+        <v>416</v>
       </c>
       <c r="G226" t="s">
-        <v>382</v>
+        <v>417</v>
       </c>
       <c r="H226" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="228" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I226" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9">
       <c r="A228" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="229" spans="1:8">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9">
       <c r="B229" t="s">
-        <v>378</v>
+        <v>413</v>
       </c>
       <c r="C229" t="n">
         <v>3.647</v>
       </c>
       <c r="D229" t="s">
-        <v>384</v>
+        <v>419</v>
       </c>
       <c r="E229" t="s">
-        <v>385</v>
+        <v>420</v>
       </c>
       <c r="F229" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G229" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H229" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I229" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9">
       <c r="B230" t="s">
-        <v>386</v>
+        <v>421</v>
       </c>
       <c r="C230" t="n">
         <v>3.6</v>
       </c>
       <c r="D230" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="E230" t="s">
-        <v>247</v>
+        <v>269</v>
       </c>
       <c r="F230" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G230" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H230" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="232" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I230" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9">
       <c r="A232" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9">
       <c r="B233" t="s">
-        <v>388</v>
+        <v>424</v>
       </c>
       <c r="C233" t="n">
         <v>4</v>
       </c>
       <c r="D233" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E233" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F233" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G233" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H233" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="234" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I233" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9">
       <c r="B234" t="s">
-        <v>328</v>
+        <v>358</v>
       </c>
       <c r="C234" t="n">
         <v>4</v>
       </c>
       <c r="D234" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E234" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F234" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G234" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H234" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="236" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I234" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9">
       <c r="A236" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="237" spans="1:8">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9">
       <c r="B237" t="s">
-        <v>374</v>
+        <v>409</v>
       </c>
       <c r="C237" t="n">
         <v>3.571</v>
       </c>
       <c r="D237" t="s">
-        <v>309</v>
+        <v>337</v>
       </c>
       <c r="E237" t="s">
-        <v>390</v>
+        <v>426</v>
       </c>
       <c r="F237" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G237" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H237" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="239" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I237" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9">
       <c r="A239" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="240" spans="1:8">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9">
       <c r="B240" t="s">
-        <v>369</v>
+        <v>403</v>
       </c>
       <c r="C240" t="n">
         <v>3.4835</v>
       </c>
       <c r="D240" t="s">
-        <v>392</v>
+        <v>428</v>
       </c>
       <c r="E240" t="s">
-        <v>393</v>
+        <v>429</v>
       </c>
       <c r="F240" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G240" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H240" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="242" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I240" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9">
       <c r="A242" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="243" spans="1:8">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9">
       <c r="B243" t="s">
-        <v>328</v>
+        <v>358</v>
       </c>
       <c r="C243" t="n">
         <v>3.684</v>
       </c>
       <c r="D243" t="s">
-        <v>395</v>
+        <v>431</v>
       </c>
       <c r="E243" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="F243" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G243" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H243" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="245" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I243" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9">
       <c r="A245" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="246" spans="1:8">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9">
       <c r="B246" t="s">
-        <v>397</v>
+        <v>433</v>
       </c>
       <c r="C246" t="n">
         <v>4</v>
       </c>
       <c r="D246" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E246" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F246" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G246" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H246" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="248" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I246" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9">
       <c r="A248" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="249" spans="1:8">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9">
       <c r="B249" t="s">
-        <v>322</v>
+        <v>351</v>
       </c>
       <c r="C249" t="n">
         <v>3.9</v>
       </c>
       <c r="D249" t="s">
-        <v>399</v>
+        <v>435</v>
       </c>
       <c r="E249" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="F249" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G249" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H249" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="251" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I249" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9">
       <c r="A251" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="252" spans="1:8">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9">
       <c r="B252" t="s">
-        <v>401</v>
+        <v>437</v>
       </c>
       <c r="C252" t="n">
         <v>4</v>
       </c>
       <c r="D252" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E252" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F252" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G252" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H252" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="254" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I252" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9">
       <c r="A254" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="255" spans="1:8">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9">
       <c r="B255" t="s">
-        <v>403</v>
+        <v>439</v>
       </c>
       <c r="C255" t="n">
         <v>3.8</v>
       </c>
       <c r="D255" t="s">
-        <v>399</v>
+        <v>435</v>
       </c>
       <c r="E255" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F255" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="G255" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H255" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="256" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I255" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9">
       <c r="B256" t="s">
-        <v>404</v>
+        <v>440</v>
       </c>
       <c r="C256" t="n">
         <v>4</v>
       </c>
       <c r="D256" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E256" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F256" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G256" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H256" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="258" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I256" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9">
       <c r="A258" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="259" spans="1:8">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9">
       <c r="B259" t="s">
-        <v>406</v>
+        <v>442</v>
       </c>
       <c r="C259" t="n">
         <v>3.469</v>
       </c>
       <c r="D259" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="E259" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="F259" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="G259" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H259" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="261" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I259" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9">
       <c r="A261" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="262" spans="1:8">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9">
       <c r="B262" t="s">
-        <v>406</v>
+        <v>442</v>
       </c>
       <c r="C262" t="n">
         <v>3.857</v>
       </c>
       <c r="D262" t="s">
-        <v>409</v>
+        <v>445</v>
       </c>
       <c r="E262" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="F262" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G262" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H262" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="264" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I262" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9">
       <c r="A264" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="265" spans="1:8">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9">
       <c r="B265" t="s">
-        <v>411</v>
+        <v>447</v>
       </c>
       <c r="C265" t="n">
         <v>3.5</v>
       </c>
       <c r="D265" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="E265" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="F265" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G265" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H265" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="267" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I265" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9">
       <c r="A267" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="268" spans="1:8">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9">
       <c r="B268" t="s">
-        <v>369</v>
+        <v>403</v>
       </c>
       <c r="C268" t="n">
         <v>3.778</v>
       </c>
       <c r="D268" t="s">
-        <v>413</v>
+        <v>449</v>
       </c>
       <c r="E268" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F268" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G268" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H268" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="270" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I268" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9">
       <c r="A270" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="271" spans="1:8">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9">
       <c r="B271" t="s">
-        <v>415</v>
+        <v>451</v>
       </c>
       <c r="C271" t="n">
         <v>4</v>
       </c>
       <c r="D271" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E271" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F271" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G271" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H271" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="273" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I271" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9">
       <c r="A273" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="274" spans="1:8">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9">
       <c r="B274" t="s">
-        <v>417</v>
+        <v>453</v>
       </c>
       <c r="C274" t="n">
         <v>2.881</v>
       </c>
       <c r="D274" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="E274" t="s">
-        <v>418</v>
+        <v>454</v>
       </c>
       <c r="F274" t="s">
-        <v>350</v>
+        <v>383</v>
       </c>
       <c r="G274" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="H274" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="276" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I274" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9">
       <c r="A276" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="277" spans="1:8">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9">
       <c r="B277" t="s">
-        <v>420</v>
+        <v>456</v>
       </c>
       <c r="C277" t="n">
         <v>2.7945</v>
       </c>
       <c r="D277" t="s">
-        <v>421</v>
+        <v>457</v>
       </c>
       <c r="E277" t="s">
-        <v>422</v>
+        <v>458</v>
       </c>
       <c r="F277" t="s">
-        <v>340</v>
+        <v>372</v>
       </c>
       <c r="G277" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="H277" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="278" spans="1:8">
+        <v>101</v>
+      </c>
+      <c r="I277" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9">
       <c r="B278" t="s">
-        <v>250</v>
+        <v>272</v>
       </c>
       <c r="C278" t="n">
         <v>3.583</v>
       </c>
       <c r="D278" t="s">
-        <v>423</v>
+        <v>460</v>
       </c>
       <c r="E278" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="F278" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G278" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H278" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="280" spans="1:8">
+        <v>461</v>
+      </c>
+      <c r="I278" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9">
       <c r="A280" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="281" spans="1:8">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9">
       <c r="B281" t="s">
-        <v>426</v>
+        <v>463</v>
       </c>
       <c r="C281" t="n">
         <v>3.0875</v>
       </c>
       <c r="D281" t="s">
-        <v>427</v>
+        <v>464</v>
       </c>
       <c r="E281" t="s">
-        <v>428</v>
+        <v>465</v>
       </c>
       <c r="F281" t="s">
-        <v>429</v>
+        <v>466</v>
       </c>
       <c r="G281" t="s">
-        <v>430</v>
+        <v>467</v>
       </c>
       <c r="H281" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="283" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I281" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9">
       <c r="A283" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="284" spans="1:8">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9">
       <c r="B284" t="s">
-        <v>250</v>
+        <v>272</v>
       </c>
       <c r="C284" t="n">
         <v>2.667</v>
       </c>
       <c r="D284" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="E284" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F284" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="G284" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H284" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="286" spans="1:8">
+        <v>64</v>
+      </c>
+      <c r="I284" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9">
       <c r="A286" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="287" spans="1:8">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9">
       <c r="B287" t="s">
-        <v>433</v>
+        <v>471</v>
       </c>
       <c r="C287" t="n">
         <v>2.722</v>
       </c>
       <c r="D287" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E287" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F287" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="G287" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="H287" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="289" spans="1:8">
+        <v>227</v>
+      </c>
+      <c r="I287" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9">
       <c r="A289" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="290" spans="1:8">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9">
       <c r="B290" t="s">
-        <v>435</v>
+        <v>473</v>
       </c>
       <c r="C290" t="n">
         <v>3.704</v>
       </c>
       <c r="D290" t="s">
-        <v>360</v>
+        <v>393</v>
       </c>
       <c r="E290" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F290" t="s">
-        <v>436</v>
+        <v>474</v>
       </c>
       <c r="G290" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H290" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="292" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I290" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9">
       <c r="A292" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="293" spans="1:8">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9">
       <c r="B293" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C293" t="n">
         <v>3.167</v>
       </c>
       <c r="D293" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="E293" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F293" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G293" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H293" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="295" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I293" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9">
       <c r="A295" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="296" spans="1:8">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9">
       <c r="B296" t="s">
-        <v>439</v>
+        <v>477</v>
       </c>
       <c r="C296" t="n">
         <v>3.087</v>
       </c>
       <c r="D296" t="s">
-        <v>440</v>
+        <v>478</v>
       </c>
       <c r="E296" t="s">
-        <v>441</v>
+        <v>479</v>
       </c>
       <c r="F296" t="s">
-        <v>441</v>
+        <v>479</v>
       </c>
       <c r="G296" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="H296" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="297" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I296" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9">
       <c r="B297" t="s">
-        <v>442</v>
+        <v>481</v>
       </c>
       <c r="C297" t="n">
         <v>3.2927</v>
       </c>
       <c r="D297" t="s">
-        <v>443</v>
+        <v>482</v>
       </c>
       <c r="E297" t="s">
-        <v>444</v>
+        <v>483</v>
       </c>
       <c r="F297" t="s">
-        <v>445</v>
+        <v>484</v>
       </c>
       <c r="G297" t="s">
-        <v>446</v>
+        <v>485</v>
       </c>
       <c r="H297" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="298" spans="1:8">
+        <v>486</v>
+      </c>
+      <c r="I297" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9">
       <c r="B298" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="C298" t="n">
         <v>3</v>
       </c>
       <c r="D298" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="E298" t="s">
-        <v>449</v>
+        <v>489</v>
       </c>
       <c r="F298" t="s">
-        <v>450</v>
+        <v>490</v>
       </c>
       <c r="G298" t="s">
-        <v>451</v>
+        <v>491</v>
       </c>
       <c r="H298" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="299" spans="1:8">
+        <v>492</v>
+      </c>
+      <c r="I298" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9">
       <c r="B299" t="s">
-        <v>453</v>
+        <v>493</v>
       </c>
       <c r="C299" t="n">
         <v>2.385</v>
       </c>
       <c r="D299" t="s">
-        <v>454</v>
+        <v>494</v>
       </c>
       <c r="E299" t="s">
-        <v>455</v>
+        <v>495</v>
       </c>
       <c r="F299" t="s">
-        <v>456</v>
+        <v>496</v>
       </c>
       <c r="G299" t="s">
-        <v>454</v>
+        <v>494</v>
       </c>
       <c r="H299" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="300" spans="1:8">
+        <v>497</v>
+      </c>
+      <c r="I299" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9">
       <c r="B300" t="s">
-        <v>458</v>
+        <v>499</v>
       </c>
       <c r="C300" t="n">
         <v>2.614</v>
       </c>
       <c r="D300" t="s">
-        <v>459</v>
+        <v>500</v>
       </c>
       <c r="E300" t="s">
-        <v>460</v>
+        <v>501</v>
       </c>
       <c r="F300" t="s">
-        <v>340</v>
+        <v>372</v>
       </c>
       <c r="G300" t="s">
-        <v>461</v>
+        <v>502</v>
       </c>
       <c r="H300" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="301" spans="1:8">
+        <v>407</v>
+      </c>
+      <c r="I300" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9">
       <c r="B301" t="s">
-        <v>463</v>
+        <v>503</v>
       </c>
       <c r="C301" t="n">
         <v>3.326</v>
       </c>
       <c r="D301" t="s">
-        <v>464</v>
+        <v>504</v>
       </c>
       <c r="E301" t="s">
-        <v>465</v>
+        <v>505</v>
       </c>
       <c r="F301" t="s">
-        <v>466</v>
+        <v>506</v>
       </c>
       <c r="G301" t="s">
-        <v>467</v>
+        <v>507</v>
       </c>
       <c r="H301" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="302" spans="1:8">
+        <v>507</v>
+      </c>
+      <c r="I301" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9">
       <c r="B302" t="s">
-        <v>417</v>
+        <v>453</v>
       </c>
       <c r="C302" t="n">
         <v>2.882</v>
       </c>
       <c r="D302" t="s">
-        <v>468</v>
+        <v>509</v>
       </c>
       <c r="E302" t="s">
-        <v>469</v>
+        <v>510</v>
       </c>
       <c r="F302" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="G302" t="s">
-        <v>470</v>
+        <v>511</v>
       </c>
       <c r="H302" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="303" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I302" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9">
       <c r="B303" t="s">
-        <v>471</v>
+        <v>513</v>
       </c>
       <c r="C303" t="n">
         <v>3.636</v>
       </c>
       <c r="D303" t="s">
-        <v>472</v>
+        <v>514</v>
       </c>
       <c r="E303" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="F303" t="s">
+        <v>162</v>
+      </c>
+      <c r="G303" t="s">
+        <v>515</v>
+      </c>
+      <c r="H303" t="s">
+        <v>21</v>
+      </c>
+      <c r="I303" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9">
+      <c r="B304" t="s">
         <v>473</v>
-      </c>
-      <c r="G303" t="s">
-        <v>474</v>
-      </c>
-      <c r="H303" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="304" spans="1:8">
-      <c r="B304" t="s">
-        <v>435</v>
       </c>
       <c r="C304" t="n">
         <v>2.34</v>
       </c>
       <c r="D304" t="s">
-        <v>475</v>
+        <v>517</v>
       </c>
       <c r="E304" t="s">
-        <v>476</v>
+        <v>518</v>
       </c>
       <c r="F304" t="s">
-        <v>476</v>
+        <v>518</v>
       </c>
       <c r="G304" t="s">
-        <v>477</v>
+        <v>168</v>
       </c>
       <c r="H304" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="306" spans="1:8">
+        <v>65</v>
+      </c>
+      <c r="I304" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9">
       <c r="A306" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="307" spans="1:8">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9">
       <c r="B307" t="s">
-        <v>463</v>
+        <v>503</v>
       </c>
       <c r="C307" t="n">
         <v>3.6513</v>
       </c>
       <c r="D307" t="s">
-        <v>480</v>
+        <v>521</v>
       </c>
       <c r="E307" t="s">
-        <v>481</v>
+        <v>522</v>
       </c>
       <c r="F307" t="s">
-        <v>482</v>
+        <v>523</v>
       </c>
       <c r="G307" t="s">
-        <v>483</v>
+        <v>524</v>
       </c>
       <c r="H307" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="309" spans="1:8">
+        <v>525</v>
+      </c>
+      <c r="I307" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9">
       <c r="A309" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="310" spans="1:8">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9">
       <c r="B310" t="s">
-        <v>486</v>
+        <v>528</v>
       </c>
       <c r="C310" t="n">
         <v>3.471</v>
       </c>
       <c r="D310" t="s">
-        <v>487</v>
+        <v>529</v>
       </c>
       <c r="E310" t="s">
-        <v>348</v>
+        <v>381</v>
       </c>
       <c r="F310" t="s">
-        <v>262</v>
+        <v>284</v>
       </c>
       <c r="G310" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H310" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="312" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I310" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9">
       <c r="A312" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="313" spans="1:8">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9">
       <c r="B313" t="s">
-        <v>489</v>
+        <v>531</v>
       </c>
       <c r="C313" t="n">
         <v>3.188</v>
       </c>
       <c r="D313" t="s">
-        <v>365</v>
+        <v>399</v>
       </c>
       <c r="E313" t="s">
-        <v>241</v>
+        <v>263</v>
       </c>
       <c r="F313" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="G313" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H313" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="315" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I313" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9">
       <c r="A315" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="316" spans="1:8">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9">
       <c r="B316" t="s">
-        <v>491</v>
+        <v>533</v>
       </c>
       <c r="C316" t="n">
         <v>2.78</v>
       </c>
       <c r="D316" t="s">
-        <v>492</v>
+        <v>534</v>
       </c>
       <c r="E316" t="s">
-        <v>493</v>
+        <v>535</v>
       </c>
       <c r="F316" t="s">
-        <v>494</v>
+        <v>536</v>
       </c>
       <c r="G316" t="s">
-        <v>475</v>
+        <v>517</v>
       </c>
       <c r="H316" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="318" spans="1:8">
+        <v>517</v>
+      </c>
+      <c r="I316" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9">
       <c r="A318" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="319" spans="1:8">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9">
       <c r="B319" t="s">
-        <v>496</v>
+        <v>539</v>
       </c>
       <c r="C319" t="n">
         <v>3.556</v>
       </c>
       <c r="D319" t="s">
-        <v>497</v>
+        <v>540</v>
       </c>
       <c r="E319" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="F319" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="G319" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H319" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="321" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I319" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="321" spans="1:9">
       <c r="A321" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="322" spans="1:8">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="322" spans="1:9">
       <c r="B322" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="C322" t="n">
         <v>3.6</v>
       </c>
       <c r="D322" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="E322" t="s">
-        <v>247</v>
+        <v>269</v>
       </c>
       <c r="F322" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G322" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H322" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="324" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I322" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="324" spans="1:9">
       <c r="A324" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="325" spans="1:8">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="325" spans="1:9">
       <c r="B325" t="s">
-        <v>500</v>
+        <v>543</v>
       </c>
       <c r="C325" t="n">
         <v>4</v>
       </c>
       <c r="D325" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E325" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F325" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G325" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H325" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="327" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I325" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="327" spans="1:9">
       <c r="A327" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="328" spans="1:8">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="328" spans="1:9">
       <c r="B328" t="s">
-        <v>500</v>
+        <v>543</v>
       </c>
       <c r="C328" t="n">
         <v>3.667</v>
       </c>
       <c r="D328" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E328" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F328" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="G328" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H328" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="330" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I328" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="330" spans="1:9">
       <c r="A330" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="331" spans="1:8">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="331" spans="1:9">
       <c r="B331" t="s">
-        <v>486</v>
+        <v>528</v>
       </c>
       <c r="C331" t="n">
         <v>3.969</v>
       </c>
       <c r="D331" t="s">
-        <v>503</v>
+        <v>546</v>
       </c>
       <c r="E331" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F331" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G331" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H331" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="333" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I331" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="333" spans="1:9">
       <c r="A333" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="334" spans="1:8">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="334" spans="1:9">
       <c r="B334" t="s">
-        <v>433</v>
+        <v>471</v>
       </c>
       <c r="C334" t="n">
         <v>3.692</v>
       </c>
       <c r="D334" t="s">
-        <v>505</v>
+        <v>548</v>
       </c>
       <c r="E334" t="s">
-        <v>506</v>
+        <v>549</v>
       </c>
       <c r="F334" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G334" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H334" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="336" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I334" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="336" spans="1:9">
       <c r="A336" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="337" spans="1:8">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="337" spans="1:9">
       <c r="B337" t="s">
-        <v>508</v>
+        <v>551</v>
       </c>
       <c r="C337" t="n">
         <v>3.889</v>
       </c>
       <c r="D337" t="s">
-        <v>509</v>
+        <v>552</v>
       </c>
       <c r="E337" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="F337" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G337" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H337" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="339" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I337" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="339" spans="1:9">
       <c r="A339" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="340" spans="1:8">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="340" spans="1:9">
       <c r="B340" t="s">
-        <v>458</v>
+        <v>499</v>
       </c>
       <c r="C340" t="n">
         <v>3.8</v>
       </c>
       <c r="D340" t="s">
-        <v>511</v>
+        <v>554</v>
       </c>
       <c r="E340" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="F340" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G340" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H340" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="341" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I340" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="341" spans="1:9">
       <c r="B341" t="s">
-        <v>512</v>
+        <v>555</v>
       </c>
       <c r="C341" t="n">
         <v>4</v>
       </c>
       <c r="D341" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E341" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F341" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G341" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H341" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="I341" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/GradeDistributionsDB/Spring2015/Output/Spring2015 GE.xlsx
+++ b/GradeDistributionsDB/Spring2015/Output/Spring2015 GE.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="529">
   <si>
     <t>Course</t>
   </si>
@@ -166,6 +166,21 @@
     <t>27.27%</t>
   </si>
   <si>
+    <t>ATMO-324</t>
+  </si>
+  <si>
+    <t>NIELSEN-GAMMON J</t>
+  </si>
+  <si>
+    <t>41.18%</t>
+  </si>
+  <si>
+    <t>52.94%</t>
+  </si>
+  <si>
+    <t>5.88%</t>
+  </si>
+  <si>
     <t>ATMO-326</t>
   </si>
   <si>
@@ -274,6 +289,9 @@
     <t>ATMO-489</t>
   </si>
   <si>
+    <t>ATMO-491</t>
+  </si>
+  <si>
     <t>ATMO-611</t>
   </si>
   <si>
@@ -433,6 +451,18 @@
     <t>0.69%</t>
   </si>
   <si>
+    <t>REILLY K</t>
+  </si>
+  <si>
+    <t>13.33%</t>
+  </si>
+  <si>
+    <t>30.00%</t>
+  </si>
+  <si>
+    <t>6.67%</t>
+  </si>
+  <si>
     <t>GEOG-203</t>
   </si>
   <si>
@@ -658,6 +688,21 @@
     <t>3.17%</t>
   </si>
   <si>
+    <t>GEOG-330</t>
+  </si>
+  <si>
+    <t>17.46%</t>
+  </si>
+  <si>
+    <t>39.68%</t>
+  </si>
+  <si>
+    <t>26.98%</t>
+  </si>
+  <si>
+    <t>12.70%</t>
+  </si>
+  <si>
     <t>GEOG-335</t>
   </si>
   <si>
@@ -802,9 +847,6 @@
     <t>94.12%</t>
   </si>
   <si>
-    <t>5.88%</t>
-  </si>
-  <si>
     <t>GEOG-478</t>
   </si>
   <si>
@@ -940,9 +982,6 @@
     <t>CARLSON R</t>
   </si>
   <si>
-    <t>17.46%</t>
-  </si>
-  <si>
     <t>57.14%</t>
   </si>
   <si>
@@ -1042,42 +1081,39 @@
     <t>GEOL-311</t>
   </si>
   <si>
+    <t>KITAJIMA H</t>
+  </si>
+  <si>
+    <t>73.33%</t>
+  </si>
+  <si>
+    <t>RAYMOND A</t>
+  </si>
+  <si>
+    <t>7.14%</t>
+  </si>
+  <si>
+    <t>CHESTER J</t>
+  </si>
+  <si>
+    <t>92.86%</t>
+  </si>
+  <si>
     <t>REECE J</t>
   </si>
   <si>
     <t>82.35%</t>
   </si>
   <si>
-    <t>KITAJIMA H</t>
-  </si>
-  <si>
-    <t>73.33%</t>
-  </si>
-  <si>
-    <t>13.33%</t>
-  </si>
-  <si>
-    <t>6.67%</t>
-  </si>
-  <si>
-    <t>41.18%</t>
-  </si>
-  <si>
-    <t>RAYMOND A</t>
-  </si>
-  <si>
-    <t>7.14%</t>
-  </si>
-  <si>
-    <t>CHESTER J</t>
-  </si>
-  <si>
-    <t>92.86%</t>
-  </si>
-  <si>
     <t>GEOL-312</t>
   </si>
   <si>
+    <t>NEWMAN J</t>
+  </si>
+  <si>
+    <t>23.33%</t>
+  </si>
+  <si>
     <t>CHESTER F</t>
   </si>
   <si>
@@ -1087,12 +1123,6 @@
     <t>40.28%</t>
   </si>
   <si>
-    <t>NEWMAN J</t>
-  </si>
-  <si>
-    <t>23.33%</t>
-  </si>
-  <si>
     <t>GEOL-320</t>
   </si>
   <si>
@@ -1273,6 +1303,24 @@
     <t>54.76%</t>
   </si>
   <si>
+    <t>GEOS-210</t>
+  </si>
+  <si>
+    <t>48.00%</t>
+  </si>
+  <si>
+    <t>28.00%</t>
+  </si>
+  <si>
+    <t>12.00%</t>
+  </si>
+  <si>
+    <t>4.00%</t>
+  </si>
+  <si>
+    <t>8.00%</t>
+  </si>
+  <si>
     <t>GEOS-405</t>
   </si>
   <si>
@@ -1441,18 +1489,9 @@
     <t>3.03%</t>
   </si>
   <si>
-    <t>8.00%</t>
-  </si>
-  <si>
     <t>38.00%</t>
   </si>
   <si>
-    <t>12.00%</t>
-  </si>
-  <si>
-    <t>4.00%</t>
-  </si>
-  <si>
     <t>OCNG-252</t>
   </si>
   <si>
@@ -1471,15 +1510,24 @@
     <t>0.96%</t>
   </si>
   <si>
+    <t>OCNG-350</t>
+  </si>
+  <si>
+    <t>YVON-LEWIS S</t>
+  </si>
+  <si>
+    <t>65.91%</t>
+  </si>
+  <si>
+    <t>2.27%</t>
+  </si>
+  <si>
     <t>OCNG-401</t>
   </si>
   <si>
     <t>BIGGS D</t>
   </si>
   <si>
-    <t>52.94%</t>
-  </si>
-  <si>
     <t>OCNG-420</t>
   </si>
   <si>
@@ -1495,10 +1543,10 @@
     <t>36.00%</t>
   </si>
   <si>
-    <t>30.00%</t>
-  </si>
-  <si>
     <t>18.00%</t>
+  </si>
+  <si>
+    <t>OCNG-440</t>
   </si>
   <si>
     <t>OCNG-451</t>
@@ -1889,7 +1937,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H341"/>
+  <dimension ref="A1:H360"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2137,38 +2185,38 @@
         <v>51</v>
       </c>
       <c r="C19" t="n">
-        <v>2.917</v>
+        <v>3.235</v>
       </c>
       <c r="D19" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="E19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F19" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="G19" t="s">
         <v>19</v>
       </c>
       <c r="H19" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="B22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C22" t="n">
-        <v>2.944</v>
+        <v>2.917</v>
       </c>
       <c r="D22" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="E22" t="s">
         <v>57</v>
@@ -2177,7 +2225,7 @@
         <v>58</v>
       </c>
       <c r="G22" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="H22" t="s">
         <v>19</v>
@@ -2193,7 +2241,7 @@
         <v>60</v>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>2.944</v>
       </c>
       <c r="D25" t="s">
         <v>61</v>
@@ -2205,7 +2253,7 @@
         <v>63</v>
       </c>
       <c r="G25" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H25" t="s">
         <v>19</v>
@@ -2213,27 +2261,27 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="B28" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" t="n">
+        <v>3</v>
+      </c>
+      <c r="D28" t="s">
         <v>66</v>
       </c>
-      <c r="C28" t="n">
-        <v>3.059</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>67</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>68</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>69</v>
-      </c>
-      <c r="G28" t="s">
-        <v>19</v>
       </c>
       <c r="H28" t="s">
         <v>19</v>
@@ -2249,7 +2297,7 @@
         <v>71</v>
       </c>
       <c r="C31" t="n">
-        <v>3.625</v>
+        <v>3.059</v>
       </c>
       <c r="D31" t="s">
         <v>72</v>
@@ -2258,7 +2306,7 @@
         <v>73</v>
       </c>
       <c r="F31" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="G31" t="s">
         <v>19</v>
@@ -2269,21 +2317,21 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="B34" t="s">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="C34" t="n">
-        <v>3.467</v>
+        <v>3.625</v>
       </c>
       <c r="D34" t="s">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="E34" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F34" t="s">
         <v>19</v>
@@ -2297,21 +2345,21 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="B37" t="s">
-        <v>77</v>
+        <v>34</v>
       </c>
       <c r="C37" t="n">
-        <v>3.818</v>
+        <v>3.467</v>
       </c>
       <c r="D37" t="s">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="E37" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F37" t="s">
         <v>19</v>
@@ -2325,21 +2373,21 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="B40" t="s">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="C40" t="n">
-        <v>3.583</v>
+        <v>3.818</v>
       </c>
       <c r="D40" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E40" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F40" t="s">
         <v>19</v>
@@ -2353,21 +2401,21 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="B43" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>3.583</v>
       </c>
       <c r="D43" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E43" t="s">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="F43" t="s">
         <v>19</v>
@@ -2381,7 +2429,7 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2392,7 +2440,7 @@
         <v>4</v>
       </c>
       <c r="D46" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E46" t="s">
         <v>19</v>
@@ -2409,24 +2457,24 @@
     </row>
     <row r="48" spans="1:8">
       <c r="A48" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="B49" t="s">
-        <v>87</v>
+        <v>34</v>
       </c>
       <c r="C49" t="n">
-        <v>3.21</v>
+        <v>4</v>
       </c>
       <c r="D49" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E49" t="s">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="F49" t="s">
-        <v>90</v>
+        <v>19</v>
       </c>
       <c r="G49" t="s">
         <v>19</v>
@@ -2442,19 +2490,19 @@
     </row>
     <row r="52" spans="1:8">
       <c r="B52" t="s">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="C52" t="n">
-        <v>3.263</v>
+        <v>4</v>
       </c>
       <c r="D52" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E52" t="s">
-        <v>93</v>
+        <v>19</v>
       </c>
       <c r="F52" t="s">
-        <v>94</v>
+        <v>19</v>
       </c>
       <c r="G52" t="s">
         <v>19</v>
@@ -2465,24 +2513,24 @@
     </row>
     <row r="54" spans="1:8">
       <c r="A54" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="B55" t="s">
+        <v>93</v>
+      </c>
+      <c r="C55" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="D55" t="s">
+        <v>94</v>
+      </c>
+      <c r="E55" t="s">
+        <v>95</v>
+      </c>
+      <c r="F55" t="s">
         <v>96</v>
-      </c>
-      <c r="C55" t="n">
-        <v>3.167</v>
-      </c>
-      <c r="D55" t="s">
-        <v>97</v>
-      </c>
-      <c r="E55" t="s">
-        <v>57</v>
-      </c>
-      <c r="F55" t="s">
-        <v>58</v>
       </c>
       <c r="G55" t="s">
         <v>19</v>
@@ -2493,24 +2541,24 @@
     </row>
     <row r="57" spans="1:8">
       <c r="A57" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="B58" t="s">
+        <v>98</v>
+      </c>
+      <c r="C58" t="n">
+        <v>3.263</v>
+      </c>
+      <c r="D58" t="s">
+        <v>94</v>
+      </c>
+      <c r="E58" t="s">
         <v>99</v>
       </c>
-      <c r="C58" t="n">
-        <v>4</v>
-      </c>
-      <c r="D58" t="s">
-        <v>84</v>
-      </c>
-      <c r="E58" t="s">
-        <v>19</v>
-      </c>
       <c r="F58" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="G58" t="s">
         <v>19</v>
@@ -2521,244 +2569,203 @@
     </row>
     <row r="60" spans="1:8">
       <c r="A60" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="B61" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C61" t="n">
-        <v>2.403</v>
+        <v>3.167</v>
       </c>
       <c r="D61" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E61" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="F61" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="G61" t="s">
+        <v>19</v>
+      </c>
+      <c r="H61" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" t="s">
         <v>104</v>
       </c>
-      <c r="H61" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
-      <c r="B62" t="s">
+    </row>
+    <row r="64" spans="1:8">
+      <c r="B64" t="s">
         <v>105</v>
       </c>
-      <c r="C62" t="n">
-        <v>2.374</v>
-      </c>
-      <c r="D62" t="s">
+      <c r="C64" t="n">
+        <v>4</v>
+      </c>
+      <c r="D64" t="s">
+        <v>89</v>
+      </c>
+      <c r="E64" t="s">
+        <v>19</v>
+      </c>
+      <c r="F64" t="s">
+        <v>19</v>
+      </c>
+      <c r="G64" t="s">
+        <v>19</v>
+      </c>
+      <c r="H64" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" t="s">
         <v>106</v>
-      </c>
-      <c r="E62" t="s">
-        <v>107</v>
-      </c>
-      <c r="F62" t="s">
-        <v>108</v>
-      </c>
-      <c r="G62" t="s">
-        <v>109</v>
-      </c>
-      <c r="H62" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
-      <c r="B63" t="s">
-        <v>111</v>
-      </c>
-      <c r="C63" t="n">
-        <v>3.186</v>
-      </c>
-      <c r="D63" t="s">
-        <v>112</v>
-      </c>
-      <c r="E63" t="s">
-        <v>113</v>
-      </c>
-      <c r="F63" t="s">
-        <v>114</v>
-      </c>
-      <c r="G63" t="s">
-        <v>115</v>
-      </c>
-      <c r="H63" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
-      <c r="A65" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
-      <c r="B66" t="s">
-        <v>118</v>
-      </c>
-      <c r="C66" t="n">
-        <v>3.292</v>
-      </c>
-      <c r="D66" t="s">
-        <v>119</v>
-      </c>
-      <c r="E66" t="s">
-        <v>120</v>
-      </c>
-      <c r="F66" t="s">
-        <v>121</v>
-      </c>
-      <c r="G66" t="s">
-        <v>122</v>
-      </c>
-      <c r="H66" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="67" spans="1:8">
       <c r="B67" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="C67" t="n">
-        <v>2.609</v>
+        <v>2.403</v>
       </c>
       <c r="D67" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="E67" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="F67" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="G67" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="H67" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
     </row>
     <row r="68" spans="1:8">
       <c r="B68" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="C68" t="n">
-        <v>3.222</v>
+        <v>2.374</v>
       </c>
       <c r="D68" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="E68" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="F68" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="G68" t="s">
-        <v>19</v>
+        <v>115</v>
       </c>
       <c r="H68" t="s">
-        <v>19</v>
+        <v>116</v>
       </c>
     </row>
     <row r="69" spans="1:8">
       <c r="B69" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="C69" t="n">
-        <v>3.181</v>
+        <v>3.186</v>
       </c>
       <c r="D69" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="E69" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="F69" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="G69" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="H69" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
     </row>
     <row r="72" spans="1:8">
       <c r="B72" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="C72" t="n">
-        <v>2.77</v>
+        <v>3.292</v>
       </c>
       <c r="D72" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="E72" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="F72" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="G72" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="H72" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
     </row>
     <row r="73" spans="1:8">
       <c r="B73" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="C73" t="n">
-        <v>2.667</v>
+        <v>2.609</v>
       </c>
       <c r="D73" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="E73" t="s">
-        <v>42</v>
+        <v>132</v>
       </c>
       <c r="F73" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="G73" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="H73" t="s">
-        <v>19</v>
+        <v>135</v>
       </c>
     </row>
     <row r="74" spans="1:8">
       <c r="B74" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="C74" t="n">
-        <v>2.704</v>
+        <v>3.222</v>
       </c>
       <c r="D74" t="s">
-        <v>150</v>
+        <v>103</v>
       </c>
       <c r="E74" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="F74" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="G74" t="s">
-        <v>153</v>
+        <v>19</v>
       </c>
       <c r="H74" t="s">
         <v>19</v>
@@ -2766,895 +2773,936 @@
     </row>
     <row r="75" spans="1:8">
       <c r="B75" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="C75" t="n">
-        <v>2.921</v>
+        <v>3.181</v>
       </c>
       <c r="D75" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="E75" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="F75" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="G75" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="H75" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
     </row>
     <row r="76" spans="1:8">
       <c r="B76" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="C76" t="n">
-        <v>2.545</v>
+        <v>2.567</v>
       </c>
       <c r="D76" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="E76" t="s">
-        <v>162</v>
+        <v>17</v>
       </c>
       <c r="F76" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="G76" t="s">
-        <v>164</v>
+        <v>31</v>
       </c>
       <c r="H76" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
     </row>
     <row r="79" spans="1:8">
       <c r="B79" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="C79" t="n">
-        <v>2.884</v>
+        <v>2.77</v>
       </c>
       <c r="D79" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="E79" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="F79" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="G79" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="H79" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
     </row>
     <row r="80" spans="1:8">
       <c r="B80" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="C80" t="n">
-        <v>3.878</v>
+        <v>2.667</v>
       </c>
       <c r="D80" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="E80" t="s">
-        <v>172</v>
+        <v>42</v>
       </c>
       <c r="F80" t="s">
-        <v>19</v>
+        <v>158</v>
       </c>
       <c r="G80" t="s">
-        <v>19</v>
+        <v>158</v>
       </c>
       <c r="H80" t="s">
         <v>19</v>
       </c>
     </row>
+    <row r="81" spans="1:8">
+      <c r="B81" t="s">
+        <v>159</v>
+      </c>
+      <c r="C81" t="n">
+        <v>2.704</v>
+      </c>
+      <c r="D81" t="s">
+        <v>160</v>
+      </c>
+      <c r="E81" t="s">
+        <v>161</v>
+      </c>
+      <c r="F81" t="s">
+        <v>162</v>
+      </c>
+      <c r="G81" t="s">
+        <v>163</v>
+      </c>
+      <c r="H81" t="s">
+        <v>19</v>
+      </c>
+    </row>
     <row r="82" spans="1:8">
-      <c r="A82" t="s">
-        <v>173</v>
+      <c r="B82" t="s">
+        <v>164</v>
+      </c>
+      <c r="C82" t="n">
+        <v>2.921</v>
+      </c>
+      <c r="D82" t="s">
+        <v>165</v>
+      </c>
+      <c r="E82" t="s">
+        <v>166</v>
+      </c>
+      <c r="F82" t="s">
+        <v>167</v>
+      </c>
+      <c r="G82" t="s">
+        <v>168</v>
+      </c>
+      <c r="H82" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="83" spans="1:8">
       <c r="B83" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="C83" t="n">
-        <v>3.3413</v>
+        <v>2.545</v>
       </c>
       <c r="D83" t="s">
+        <v>171</v>
+      </c>
+      <c r="E83" t="s">
+        <v>172</v>
+      </c>
+      <c r="F83" t="s">
+        <v>173</v>
+      </c>
+      <c r="G83" t="s">
         <v>174</v>
       </c>
-      <c r="E83" t="s">
+      <c r="H83" t="s">
         <v>175</v>
       </c>
-      <c r="F83" t="s">
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" t="s">
         <v>176</v>
       </c>
-      <c r="G83" t="s">
+    </row>
+    <row r="86" spans="1:8">
+      <c r="B86" t="s">
+        <v>139</v>
+      </c>
+      <c r="C86" t="n">
+        <v>2.884</v>
+      </c>
+      <c r="D86" t="s">
         <v>177</v>
       </c>
-      <c r="H83" t="s">
+      <c r="E86" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="84" spans="1:8">
-      <c r="B84" t="s">
-        <v>146</v>
-      </c>
-      <c r="C84" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="D84" t="s">
+      <c r="F86" t="s">
+        <v>177</v>
+      </c>
+      <c r="G86" t="s">
         <v>179</v>
       </c>
-      <c r="E84" t="s">
-        <v>180</v>
-      </c>
-      <c r="F84" t="s">
-        <v>180</v>
-      </c>
-      <c r="G84" t="s">
-        <v>19</v>
-      </c>
-      <c r="H84" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
-      <c r="A86" t="s">
-        <v>181</v>
+      <c r="H86" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="87" spans="1:8">
       <c r="B87" t="s">
+        <v>180</v>
+      </c>
+      <c r="C87" t="n">
+        <v>3.878</v>
+      </c>
+      <c r="D87" t="s">
+        <v>181</v>
+      </c>
+      <c r="E87" t="s">
         <v>182</v>
       </c>
-      <c r="C87" t="n">
-        <v>2.722</v>
-      </c>
-      <c r="D87" t="s">
-        <v>183</v>
-      </c>
-      <c r="E87" t="s">
-        <v>184</v>
-      </c>
       <c r="F87" t="s">
-        <v>183</v>
+        <v>19</v>
       </c>
       <c r="G87" t="s">
-        <v>185</v>
+        <v>19</v>
       </c>
       <c r="H87" t="s">
-        <v>186</v>
+        <v>19</v>
       </c>
     </row>
     <row r="89" spans="1:8">
       <c r="A89" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="90" spans="1:8">
       <c r="B90" t="s">
+        <v>170</v>
+      </c>
+      <c r="C90" t="n">
+        <v>3.3413</v>
+      </c>
+      <c r="D90" t="s">
+        <v>184</v>
+      </c>
+      <c r="E90" t="s">
+        <v>185</v>
+      </c>
+      <c r="F90" t="s">
+        <v>186</v>
+      </c>
+      <c r="G90" t="s">
+        <v>187</v>
+      </c>
+      <c r="H90" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="B91" t="s">
+        <v>156</v>
+      </c>
+      <c r="C91" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="D91" t="s">
+        <v>189</v>
+      </c>
+      <c r="E91" t="s">
+        <v>190</v>
+      </c>
+      <c r="F91" t="s">
+        <v>190</v>
+      </c>
+      <c r="G91" t="s">
+        <v>19</v>
+      </c>
+      <c r="H91" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="B94" t="s">
+        <v>192</v>
+      </c>
+      <c r="C94" t="n">
+        <v>2.722</v>
+      </c>
+      <c r="D94" t="s">
+        <v>193</v>
+      </c>
+      <c r="E94" t="s">
+        <v>194</v>
+      </c>
+      <c r="F94" t="s">
+        <v>193</v>
+      </c>
+      <c r="G94" t="s">
+        <v>195</v>
+      </c>
+      <c r="H94" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="B97" t="s">
+        <v>117</v>
+      </c>
+      <c r="C97" t="n">
+        <v>3.057</v>
+      </c>
+      <c r="D97" t="s">
+        <v>198</v>
+      </c>
+      <c r="E97" t="s">
+        <v>199</v>
+      </c>
+      <c r="F97" t="s">
+        <v>200</v>
+      </c>
+      <c r="G97" t="s">
+        <v>201</v>
+      </c>
+      <c r="H97" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="B100" t="s">
+        <v>124</v>
+      </c>
+      <c r="C100" t="n">
+        <v>2.989</v>
+      </c>
+      <c r="D100" t="s">
+        <v>204</v>
+      </c>
+      <c r="E100" t="s">
+        <v>205</v>
+      </c>
+      <c r="F100" t="s">
+        <v>206</v>
+      </c>
+      <c r="G100" t="s">
+        <v>207</v>
+      </c>
+      <c r="H100" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="B103" t="s">
+        <v>210</v>
+      </c>
+      <c r="C103" t="n">
+        <v>2.719</v>
+      </c>
+      <c r="D103" t="s">
+        <v>211</v>
+      </c>
+      <c r="E103" t="s">
+        <v>212</v>
+      </c>
+      <c r="F103" t="s">
+        <v>211</v>
+      </c>
+      <c r="G103" t="s">
+        <v>213</v>
+      </c>
+      <c r="H103" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="B106" t="s">
+        <v>216</v>
+      </c>
+      <c r="C106" t="n">
+        <v>2.778</v>
+      </c>
+      <c r="D106" t="s">
+        <v>63</v>
+      </c>
+      <c r="E106" t="s">
+        <v>62</v>
+      </c>
+      <c r="F106" t="s">
+        <v>217</v>
+      </c>
+      <c r="G106" t="s">
+        <v>218</v>
+      </c>
+      <c r="H106" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="B109" t="s">
+        <v>124</v>
+      </c>
+      <c r="C109" t="n">
+        <v>3.032</v>
+      </c>
+      <c r="D109" t="s">
+        <v>220</v>
+      </c>
+      <c r="E109" t="s">
+        <v>41</v>
+      </c>
+      <c r="F109" t="s">
+        <v>221</v>
+      </c>
+      <c r="G109" t="s">
+        <v>222</v>
+      </c>
+      <c r="H109" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="B112" t="s">
+        <v>145</v>
+      </c>
+      <c r="C112" t="n">
+        <v>2.556</v>
+      </c>
+      <c r="D112" t="s">
+        <v>225</v>
+      </c>
+      <c r="E112" t="s">
+        <v>226</v>
+      </c>
+      <c r="F112" t="s">
+        <v>227</v>
+      </c>
+      <c r="G112" t="s">
+        <v>228</v>
+      </c>
+      <c r="H112" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
+      <c r="A114" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="B115" t="s">
+        <v>230</v>
+      </c>
+      <c r="C115" t="n">
+        <v>2.404</v>
+      </c>
+      <c r="D115" t="s">
+        <v>231</v>
+      </c>
+      <c r="E115" t="s">
+        <v>232</v>
+      </c>
+      <c r="F115" t="s">
+        <v>233</v>
+      </c>
+      <c r="G115" t="s">
+        <v>231</v>
+      </c>
+      <c r="H115" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
+      <c r="A117" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="B118" t="s">
+        <v>235</v>
+      </c>
+      <c r="C118" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="D118" t="s">
+        <v>200</v>
+      </c>
+      <c r="E118" t="s">
+        <v>236</v>
+      </c>
+      <c r="F118" t="s">
+        <v>190</v>
+      </c>
+      <c r="G118" t="s">
+        <v>19</v>
+      </c>
+      <c r="H118" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
+      <c r="A120" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
+      <c r="B121" t="s">
+        <v>170</v>
+      </c>
+      <c r="C121" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="D121" t="s">
+        <v>190</v>
+      </c>
+      <c r="E121" t="s">
+        <v>238</v>
+      </c>
+      <c r="F121" t="s">
+        <v>239</v>
+      </c>
+      <c r="G121" t="s">
+        <v>240</v>
+      </c>
+      <c r="H121" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
+      <c r="A123" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
+      <c r="B124" t="s">
         <v>111</v>
       </c>
-      <c r="C90" t="n">
-        <v>3.057</v>
-      </c>
-      <c r="D90" t="s">
-        <v>188</v>
-      </c>
-      <c r="E90" t="s">
-        <v>189</v>
-      </c>
-      <c r="F90" t="s">
-        <v>190</v>
-      </c>
-      <c r="G90" t="s">
-        <v>191</v>
-      </c>
-      <c r="H90" t="s">
+      <c r="C124" t="n">
+        <v>3.864</v>
+      </c>
+      <c r="D124" t="s">
+        <v>242</v>
+      </c>
+      <c r="E124" t="s">
+        <v>243</v>
+      </c>
+      <c r="F124" t="s">
+        <v>19</v>
+      </c>
+      <c r="G124" t="s">
+        <v>19</v>
+      </c>
+      <c r="H124" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
+      <c r="A126" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
+      <c r="B127" t="s">
+        <v>245</v>
+      </c>
+      <c r="C127" t="n">
+        <v>2.6052</v>
+      </c>
+      <c r="D127" t="s">
+        <v>246</v>
+      </c>
+      <c r="E127" t="s">
+        <v>247</v>
+      </c>
+      <c r="F127" t="s">
+        <v>248</v>
+      </c>
+      <c r="G127" t="s">
+        <v>246</v>
+      </c>
+      <c r="H127" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
+      <c r="A129" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
+      <c r="B130" t="s">
+        <v>130</v>
+      </c>
+      <c r="C130" t="n">
+        <v>2.683</v>
+      </c>
+      <c r="D130" t="s">
+        <v>250</v>
+      </c>
+      <c r="E130" t="s">
+        <v>251</v>
+      </c>
+      <c r="F130" t="s">
+        <v>252</v>
+      </c>
+      <c r="G130" t="s">
+        <v>253</v>
+      </c>
+      <c r="H130" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8">
+      <c r="A132" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
+      <c r="B133" t="s">
+        <v>255</v>
+      </c>
+      <c r="C133" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="D133" t="s">
+        <v>77</v>
+      </c>
+      <c r="E133" t="s">
+        <v>256</v>
+      </c>
+      <c r="F133" t="s">
+        <v>19</v>
+      </c>
+      <c r="G133" t="s">
+        <v>257</v>
+      </c>
+      <c r="H133" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
+      <c r="A135" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
+      <c r="B136" t="s">
+        <v>210</v>
+      </c>
+      <c r="C136" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="D136" t="s">
+        <v>62</v>
+      </c>
+      <c r="E136" t="s">
+        <v>62</v>
+      </c>
+      <c r="F136" t="s">
+        <v>19</v>
+      </c>
+      <c r="G136" t="s">
+        <v>19</v>
+      </c>
+      <c r="H136" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8">
+      <c r="A138" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8">
+      <c r="B139" t="s">
+        <v>164</v>
+      </c>
+      <c r="C139" t="n">
+        <v>2.583</v>
+      </c>
+      <c r="D139" t="s">
+        <v>61</v>
+      </c>
+      <c r="E139" t="s">
+        <v>103</v>
+      </c>
+      <c r="F139" t="s">
+        <v>61</v>
+      </c>
+      <c r="G139" t="s">
+        <v>58</v>
+      </c>
+      <c r="H139" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
+      <c r="A141" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8">
+      <c r="B142" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="92" spans="1:8">
-      <c r="A92" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
-      <c r="B93" t="s">
-        <v>118</v>
-      </c>
-      <c r="C93" t="n">
-        <v>2.989</v>
-      </c>
-      <c r="D93" t="s">
-        <v>194</v>
-      </c>
-      <c r="E93" t="s">
-        <v>195</v>
-      </c>
-      <c r="F93" t="s">
-        <v>196</v>
-      </c>
-      <c r="G93" t="s">
-        <v>197</v>
-      </c>
-      <c r="H93" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
-      <c r="A95" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
-      <c r="B96" t="s">
-        <v>200</v>
-      </c>
-      <c r="C96" t="n">
-        <v>2.719</v>
-      </c>
-      <c r="D96" t="s">
-        <v>201</v>
-      </c>
-      <c r="E96" t="s">
+      <c r="C142" t="n">
+        <v>2.857</v>
+      </c>
+      <c r="D142" t="s">
+        <v>261</v>
+      </c>
+      <c r="E142" t="s">
+        <v>262</v>
+      </c>
+      <c r="F142" t="s">
+        <v>263</v>
+      </c>
+      <c r="G142" t="s">
         <v>202</v>
       </c>
-      <c r="F96" t="s">
-        <v>201</v>
-      </c>
-      <c r="G96" t="s">
-        <v>203</v>
-      </c>
-      <c r="H96" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
-      <c r="A98" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
-      <c r="B99" t="s">
-        <v>206</v>
-      </c>
-      <c r="C99" t="n">
-        <v>2.778</v>
-      </c>
-      <c r="D99" t="s">
-        <v>58</v>
-      </c>
-      <c r="E99" t="s">
-        <v>57</v>
-      </c>
-      <c r="F99" t="s">
-        <v>207</v>
-      </c>
-      <c r="G99" t="s">
-        <v>208</v>
-      </c>
-      <c r="H99" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
-      <c r="A101" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
-      <c r="B102" t="s">
-        <v>118</v>
-      </c>
-      <c r="C102" t="n">
-        <v>3.032</v>
-      </c>
-      <c r="D102" t="s">
-        <v>210</v>
-      </c>
-      <c r="E102" t="s">
-        <v>41</v>
-      </c>
-      <c r="F102" t="s">
-        <v>211</v>
-      </c>
-      <c r="G102" t="s">
-        <v>212</v>
-      </c>
-      <c r="H102" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
-      <c r="A104" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
-      <c r="B105" t="s">
-        <v>215</v>
-      </c>
-      <c r="C105" t="n">
-        <v>2.404</v>
-      </c>
-      <c r="D105" t="s">
-        <v>216</v>
-      </c>
-      <c r="E105" t="s">
-        <v>217</v>
-      </c>
-      <c r="F105" t="s">
-        <v>218</v>
-      </c>
-      <c r="G105" t="s">
-        <v>216</v>
-      </c>
-      <c r="H105" t="s">
+      <c r="H142" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8">
+      <c r="A144" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8">
+      <c r="B145" t="s">
+        <v>265</v>
+      </c>
+      <c r="C145" t="n">
+        <v>2.889</v>
+      </c>
+      <c r="D145" t="s">
+        <v>138</v>
+      </c>
+      <c r="E145" t="s">
+        <v>266</v>
+      </c>
+      <c r="F145" t="s">
+        <v>30</v>
+      </c>
+      <c r="G145" t="s">
+        <v>19</v>
+      </c>
+      <c r="H145" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8">
+      <c r="A147" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8">
+      <c r="B148" t="s">
+        <v>124</v>
+      </c>
+      <c r="C148" t="n">
+        <v>3.071</v>
+      </c>
+      <c r="D148" t="s">
+        <v>62</v>
+      </c>
+      <c r="E148" t="s">
+        <v>268</v>
+      </c>
+      <c r="F148" t="s">
+        <v>269</v>
+      </c>
+      <c r="G148" t="s">
+        <v>269</v>
+      </c>
+      <c r="H148" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8">
+      <c r="A150" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8">
+      <c r="B151" t="s">
+        <v>271</v>
+      </c>
+      <c r="C151" t="n">
+        <v>2.6047</v>
+      </c>
+      <c r="D151" t="s">
+        <v>272</v>
+      </c>
+      <c r="E151" t="s">
+        <v>232</v>
+      </c>
+      <c r="F151" t="s">
+        <v>273</v>
+      </c>
+      <c r="G151" t="s">
+        <v>231</v>
+      </c>
+      <c r="H151" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="107" spans="1:8">
-      <c r="A107" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
-      <c r="B108" t="s">
-        <v>220</v>
-      </c>
-      <c r="C108" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="D108" t="s">
-        <v>190</v>
-      </c>
-      <c r="E108" t="s">
-        <v>221</v>
-      </c>
-      <c r="F108" t="s">
-        <v>180</v>
-      </c>
-      <c r="G108" t="s">
-        <v>19</v>
-      </c>
-      <c r="H108" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
-      <c r="A110" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
-      <c r="B111" t="s">
-        <v>160</v>
-      </c>
-      <c r="C111" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="D111" t="s">
-        <v>180</v>
-      </c>
-      <c r="E111" t="s">
-        <v>223</v>
-      </c>
-      <c r="F111" t="s">
-        <v>224</v>
-      </c>
-      <c r="G111" t="s">
-        <v>225</v>
-      </c>
-      <c r="H111" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
-      <c r="A113" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
-      <c r="B114" t="s">
-        <v>105</v>
-      </c>
-      <c r="C114" t="n">
-        <v>3.864</v>
-      </c>
-      <c r="D114" t="s">
-        <v>227</v>
-      </c>
-      <c r="E114" t="s">
-        <v>228</v>
-      </c>
-      <c r="F114" t="s">
-        <v>19</v>
-      </c>
-      <c r="G114" t="s">
-        <v>19</v>
-      </c>
-      <c r="H114" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
-      <c r="A116" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
-      <c r="B117" t="s">
+    <row r="153" spans="1:8">
+      <c r="A153" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8">
+      <c r="B154" t="s">
+        <v>275</v>
+      </c>
+      <c r="C154" t="n">
+        <v>3.765</v>
+      </c>
+      <c r="D154" t="s">
+        <v>276</v>
+      </c>
+      <c r="E154" t="s">
+        <v>19</v>
+      </c>
+      <c r="F154" t="s">
+        <v>19</v>
+      </c>
+      <c r="G154" t="s">
+        <v>19</v>
+      </c>
+      <c r="H154" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8">
+      <c r="A156" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8">
+      <c r="B157" t="s">
+        <v>275</v>
+      </c>
+      <c r="C157" t="n">
+        <v>3.769</v>
+      </c>
+      <c r="D157" t="s">
+        <v>278</v>
+      </c>
+      <c r="E157" t="s">
+        <v>279</v>
+      </c>
+      <c r="F157" t="s">
+        <v>19</v>
+      </c>
+      <c r="G157" t="s">
+        <v>19</v>
+      </c>
+      <c r="H157" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8">
+      <c r="A159" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8">
+      <c r="B160" t="s">
         <v>230</v>
       </c>
-      <c r="C117" t="n">
-        <v>2.6052</v>
-      </c>
-      <c r="D117" t="s">
-        <v>231</v>
-      </c>
-      <c r="E117" t="s">
-        <v>232</v>
-      </c>
-      <c r="F117" t="s">
-        <v>233</v>
-      </c>
-      <c r="G117" t="s">
-        <v>231</v>
-      </c>
-      <c r="H117" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
-      <c r="A119" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
-      <c r="B120" t="s">
-        <v>124</v>
-      </c>
-      <c r="C120" t="n">
-        <v>2.683</v>
-      </c>
-      <c r="D120" t="s">
-        <v>235</v>
-      </c>
-      <c r="E120" t="s">
-        <v>236</v>
-      </c>
-      <c r="F120" t="s">
-        <v>237</v>
-      </c>
-      <c r="G120" t="s">
-        <v>238</v>
-      </c>
-      <c r="H120" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
-      <c r="A122" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
-      <c r="B123" t="s">
-        <v>240</v>
-      </c>
-      <c r="C123" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="D123" t="s">
-        <v>72</v>
-      </c>
-      <c r="E123" t="s">
-        <v>241</v>
-      </c>
-      <c r="F123" t="s">
-        <v>19</v>
-      </c>
-      <c r="G123" t="s">
-        <v>242</v>
-      </c>
-      <c r="H123" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
-      <c r="A125" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
-      <c r="B126" t="s">
-        <v>200</v>
-      </c>
-      <c r="C126" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="D126" t="s">
-        <v>57</v>
-      </c>
-      <c r="E126" t="s">
-        <v>57</v>
-      </c>
-      <c r="F126" t="s">
-        <v>19</v>
-      </c>
-      <c r="G126" t="s">
-        <v>19</v>
-      </c>
-      <c r="H126" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
-      <c r="A128" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
-      <c r="B129" t="s">
-        <v>154</v>
-      </c>
-      <c r="C129" t="n">
-        <v>2.583</v>
-      </c>
-      <c r="D129" t="s">
-        <v>56</v>
-      </c>
-      <c r="E129" t="s">
-        <v>97</v>
-      </c>
-      <c r="F129" t="s">
-        <v>56</v>
-      </c>
-      <c r="G129" t="s">
-        <v>53</v>
-      </c>
-      <c r="H129" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
-      <c r="A131" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
-      <c r="B132" t="s">
-        <v>182</v>
-      </c>
-      <c r="C132" t="n">
-        <v>2.857</v>
-      </c>
-      <c r="D132" t="s">
-        <v>246</v>
-      </c>
-      <c r="E132" t="s">
-        <v>247</v>
-      </c>
-      <c r="F132" t="s">
-        <v>248</v>
-      </c>
-      <c r="G132" t="s">
-        <v>192</v>
-      </c>
-      <c r="H132" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
-      <c r="A134" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
-      <c r="B135" t="s">
-        <v>250</v>
-      </c>
-      <c r="C135" t="n">
-        <v>2.889</v>
-      </c>
-      <c r="D135" t="s">
-        <v>132</v>
-      </c>
-      <c r="E135" t="s">
-        <v>251</v>
-      </c>
-      <c r="F135" t="s">
-        <v>30</v>
-      </c>
-      <c r="G135" t="s">
-        <v>19</v>
-      </c>
-      <c r="H135" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
-      <c r="A137" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
-      <c r="B138" t="s">
-        <v>118</v>
-      </c>
-      <c r="C138" t="n">
-        <v>3.071</v>
-      </c>
-      <c r="D138" t="s">
-        <v>57</v>
-      </c>
-      <c r="E138" t="s">
-        <v>253</v>
-      </c>
-      <c r="F138" t="s">
-        <v>254</v>
-      </c>
-      <c r="G138" t="s">
-        <v>254</v>
-      </c>
-      <c r="H138" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
-      <c r="A140" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
-      <c r="B141" t="s">
-        <v>256</v>
-      </c>
-      <c r="C141" t="n">
-        <v>2.6047</v>
-      </c>
-      <c r="D141" t="s">
-        <v>257</v>
-      </c>
-      <c r="E141" t="s">
-        <v>217</v>
-      </c>
-      <c r="F141" t="s">
-        <v>258</v>
-      </c>
-      <c r="G141" t="s">
-        <v>216</v>
-      </c>
-      <c r="H141" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
-      <c r="A143" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
-      <c r="B144" t="s">
-        <v>260</v>
-      </c>
-      <c r="C144" t="n">
-        <v>3.765</v>
-      </c>
-      <c r="D144" t="s">
-        <v>261</v>
-      </c>
-      <c r="E144" t="s">
-        <v>19</v>
-      </c>
-      <c r="F144" t="s">
-        <v>19</v>
-      </c>
-      <c r="G144" t="s">
-        <v>19</v>
-      </c>
-      <c r="H144" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
-      <c r="A146" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
-      <c r="B147" t="s">
-        <v>260</v>
-      </c>
-      <c r="C147" t="n">
-        <v>3.769</v>
-      </c>
-      <c r="D147" t="s">
-        <v>264</v>
-      </c>
-      <c r="E147" t="s">
-        <v>265</v>
-      </c>
-      <c r="F147" t="s">
-        <v>19</v>
-      </c>
-      <c r="G147" t="s">
-        <v>19</v>
-      </c>
-      <c r="H147" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
-      <c r="A149" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
-      <c r="B150" t="s">
-        <v>215</v>
-      </c>
-      <c r="C150" t="n">
+      <c r="C160" t="n">
         <v>4</v>
       </c>
-      <c r="D150" t="s">
-        <v>84</v>
-      </c>
-      <c r="E150" t="s">
-        <v>19</v>
-      </c>
-      <c r="F150" t="s">
-        <v>19</v>
-      </c>
-      <c r="G150" t="s">
-        <v>19</v>
-      </c>
-      <c r="H150" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
-      <c r="A152" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
-      <c r="B153" t="s">
-        <v>268</v>
-      </c>
-      <c r="C153" t="n">
-        <v>3.625</v>
-      </c>
-      <c r="D153" t="s">
-        <v>269</v>
-      </c>
-      <c r="E153" t="s">
-        <v>56</v>
-      </c>
-      <c r="F153" t="s">
-        <v>242</v>
-      </c>
-      <c r="G153" t="s">
-        <v>19</v>
-      </c>
-      <c r="H153" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
-      <c r="A155" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
-      <c r="B156" t="s">
-        <v>230</v>
-      </c>
-      <c r="C156" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="D156" t="s">
-        <v>57</v>
-      </c>
-      <c r="E156" t="s">
-        <v>57</v>
-      </c>
-      <c r="F156" t="s">
-        <v>19</v>
-      </c>
-      <c r="G156" t="s">
-        <v>19</v>
-      </c>
-      <c r="H156" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
-      <c r="A158" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
-      <c r="B159" t="s">
-        <v>256</v>
-      </c>
-      <c r="C159" t="n">
-        <v>3.219</v>
-      </c>
-      <c r="D159" t="s">
-        <v>56</v>
-      </c>
-      <c r="E159" t="s">
-        <v>272</v>
-      </c>
-      <c r="F159" t="s">
-        <v>204</v>
-      </c>
-      <c r="G159" t="s">
-        <v>19</v>
-      </c>
-      <c r="H159" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
-      <c r="A161" t="s">
-        <v>273</v>
+      <c r="D160" t="s">
+        <v>89</v>
+      </c>
+      <c r="E160" t="s">
+        <v>19</v>
+      </c>
+      <c r="F160" t="s">
+        <v>19</v>
+      </c>
+      <c r="G160" t="s">
+        <v>19</v>
+      </c>
+      <c r="H160" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="162" spans="1:8">
-      <c r="B162" t="s">
-        <v>206</v>
-      </c>
-      <c r="C162" t="n">
-        <v>3.333</v>
-      </c>
-      <c r="D162" t="s">
-        <v>251</v>
-      </c>
-      <c r="E162" t="s">
-        <v>58</v>
-      </c>
-      <c r="F162" t="s">
-        <v>19</v>
-      </c>
-      <c r="G162" t="s">
-        <v>58</v>
-      </c>
-      <c r="H162" t="s">
-        <v>19</v>
+      <c r="A162" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="163" spans="1:8">
       <c r="B163" t="s">
-        <v>260</v>
+        <v>282</v>
       </c>
       <c r="C163" t="n">
-        <v>4</v>
+        <v>3.625</v>
       </c>
       <c r="D163" t="s">
-        <v>84</v>
+        <v>283</v>
       </c>
       <c r="E163" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="F163" t="s">
-        <v>19</v>
+        <v>257</v>
       </c>
       <c r="G163" t="s">
         <v>19</v>
@@ -3665,343 +3713,343 @@
     </row>
     <row r="165" spans="1:8">
       <c r="A165" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
     </row>
     <row r="166" spans="1:8">
       <c r="B166" t="s">
-        <v>275</v>
+        <v>245</v>
       </c>
       <c r="C166" t="n">
-        <v>2.7233</v>
+        <v>3.5</v>
       </c>
       <c r="D166" t="s">
-        <v>180</v>
+        <v>62</v>
       </c>
       <c r="E166" t="s">
-        <v>247</v>
+        <v>62</v>
       </c>
       <c r="F166" t="s">
-        <v>276</v>
+        <v>19</v>
       </c>
       <c r="G166" t="s">
-        <v>277</v>
+        <v>19</v>
       </c>
       <c r="H166" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
-      <c r="B167" t="s">
-        <v>279</v>
-      </c>
-      <c r="C167" t="n">
-        <v>2.7683</v>
-      </c>
-      <c r="D167" t="s">
-        <v>280</v>
-      </c>
-      <c r="E167" t="s">
-        <v>281</v>
-      </c>
-      <c r="F167" t="s">
-        <v>183</v>
-      </c>
-      <c r="G167" t="s">
-        <v>282</v>
-      </c>
-      <c r="H167" t="s">
-        <v>283</v>
+        <v>19</v>
       </c>
     </row>
     <row r="168" spans="1:8">
-      <c r="B168" t="s">
-        <v>284</v>
-      </c>
-      <c r="C168" t="n">
-        <v>3.3883</v>
-      </c>
-      <c r="D168" t="s">
+      <c r="A168" t="s">
         <v>285</v>
-      </c>
-      <c r="E168" t="s">
-        <v>286</v>
-      </c>
-      <c r="F168" t="s">
-        <v>287</v>
-      </c>
-      <c r="G168" t="s">
-        <v>288</v>
-      </c>
-      <c r="H168" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="169" spans="1:8">
       <c r="B169" t="s">
-        <v>289</v>
+        <v>271</v>
       </c>
       <c r="C169" t="n">
-        <v>2.7529</v>
+        <v>3.219</v>
       </c>
       <c r="D169" t="s">
-        <v>290</v>
+        <v>61</v>
       </c>
       <c r="E169" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="F169" t="s">
-        <v>292</v>
+        <v>214</v>
       </c>
       <c r="G169" t="s">
-        <v>293</v>
+        <v>19</v>
       </c>
       <c r="H169" t="s">
-        <v>294</v>
+        <v>19</v>
       </c>
     </row>
     <row r="171" spans="1:8">
       <c r="A171" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
     </row>
     <row r="172" spans="1:8">
       <c r="B172" t="s">
+        <v>216</v>
+      </c>
+      <c r="C172" t="n">
+        <v>3.333</v>
+      </c>
+      <c r="D172" t="s">
+        <v>266</v>
+      </c>
+      <c r="E172" t="s">
+        <v>63</v>
+      </c>
+      <c r="F172" t="s">
+        <v>19</v>
+      </c>
+      <c r="G172" t="s">
+        <v>63</v>
+      </c>
+      <c r="H172" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8">
+      <c r="B173" t="s">
+        <v>275</v>
+      </c>
+      <c r="C173" t="n">
+        <v>4</v>
+      </c>
+      <c r="D173" t="s">
+        <v>89</v>
+      </c>
+      <c r="E173" t="s">
+        <v>19</v>
+      </c>
+      <c r="F173" t="s">
+        <v>19</v>
+      </c>
+      <c r="G173" t="s">
+        <v>19</v>
+      </c>
+      <c r="H173" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8">
+      <c r="A175" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8">
+      <c r="B176" t="s">
+        <v>289</v>
+      </c>
+      <c r="C176" t="n">
+        <v>2.7233</v>
+      </c>
+      <c r="D176" t="s">
+        <v>190</v>
+      </c>
+      <c r="E176" t="s">
+        <v>262</v>
+      </c>
+      <c r="F176" t="s">
+        <v>290</v>
+      </c>
+      <c r="G176" t="s">
+        <v>291</v>
+      </c>
+      <c r="H176" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8">
+      <c r="B177" t="s">
+        <v>293</v>
+      </c>
+      <c r="C177" t="n">
+        <v>2.7683</v>
+      </c>
+      <c r="D177" t="s">
+        <v>294</v>
+      </c>
+      <c r="E177" t="s">
+        <v>295</v>
+      </c>
+      <c r="F177" t="s">
+        <v>193</v>
+      </c>
+      <c r="G177" t="s">
         <v>296</v>
       </c>
-      <c r="C172" t="n">
-        <v>2.5958</v>
-      </c>
-      <c r="D172" t="s">
-        <v>125</v>
-      </c>
-      <c r="E172" t="s">
+      <c r="H177" t="s">
         <v>297</v>
-      </c>
-      <c r="F172" t="s">
-        <v>298</v>
-      </c>
-      <c r="G172" t="s">
-        <v>299</v>
-      </c>
-      <c r="H172" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
-      <c r="A174" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8">
-      <c r="B175" t="s">
-        <v>301</v>
-      </c>
-      <c r="C175" t="n">
-        <v>2.7283</v>
-      </c>
-      <c r="D175" t="s">
-        <v>302</v>
-      </c>
-      <c r="E175" t="s">
-        <v>303</v>
-      </c>
-      <c r="F175" t="s">
-        <v>304</v>
-      </c>
-      <c r="G175" t="s">
-        <v>305</v>
-      </c>
-      <c r="H175" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8">
-      <c r="A177" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="178" spans="1:8">
       <c r="B178" t="s">
+        <v>298</v>
+      </c>
+      <c r="C178" t="n">
+        <v>3.3883</v>
+      </c>
+      <c r="D178" t="s">
+        <v>299</v>
+      </c>
+      <c r="E178" t="s">
+        <v>300</v>
+      </c>
+      <c r="F178" t="s">
+        <v>301</v>
+      </c>
+      <c r="G178" t="s">
+        <v>302</v>
+      </c>
+      <c r="H178" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8">
+      <c r="B179" t="s">
+        <v>303</v>
+      </c>
+      <c r="C179" t="n">
+        <v>2.7529</v>
+      </c>
+      <c r="D179" t="s">
+        <v>304</v>
+      </c>
+      <c r="E179" t="s">
+        <v>305</v>
+      </c>
+      <c r="F179" t="s">
+        <v>306</v>
+      </c>
+      <c r="G179" t="s">
         <v>307</v>
       </c>
-      <c r="C178" t="n">
+      <c r="H179" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8">
+      <c r="A181" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8">
+      <c r="B182" t="s">
+        <v>310</v>
+      </c>
+      <c r="C182" t="n">
+        <v>2.5958</v>
+      </c>
+      <c r="D182" t="s">
+        <v>131</v>
+      </c>
+      <c r="E182" t="s">
+        <v>311</v>
+      </c>
+      <c r="F182" t="s">
+        <v>312</v>
+      </c>
+      <c r="G182" t="s">
+        <v>313</v>
+      </c>
+      <c r="H182" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8">
+      <c r="A184" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8">
+      <c r="B185" t="s">
+        <v>315</v>
+      </c>
+      <c r="C185" t="n">
+        <v>2.7283</v>
+      </c>
+      <c r="D185" t="s">
+        <v>316</v>
+      </c>
+      <c r="E185" t="s">
+        <v>317</v>
+      </c>
+      <c r="F185" t="s">
+        <v>318</v>
+      </c>
+      <c r="G185" t="s">
+        <v>319</v>
+      </c>
+      <c r="H185" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8">
+      <c r="A187" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8">
+      <c r="B188" t="s">
+        <v>321</v>
+      </c>
+      <c r="C188" t="n">
         <v>2.8705</v>
       </c>
-      <c r="D178" t="s">
-        <v>308</v>
-      </c>
-      <c r="E178" t="s">
-        <v>309</v>
-      </c>
-      <c r="F178" t="s">
-        <v>310</v>
-      </c>
-      <c r="G178" t="s">
+      <c r="D188" t="s">
+        <v>225</v>
+      </c>
+      <c r="E188" t="s">
+        <v>322</v>
+      </c>
+      <c r="F188" t="s">
+        <v>323</v>
+      </c>
+      <c r="G188" t="s">
         <v>44</v>
       </c>
-      <c r="H178" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8">
-      <c r="A180" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8">
-      <c r="B181" t="s">
-        <v>301</v>
-      </c>
-      <c r="C181" t="n">
+      <c r="H188" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8">
+      <c r="A190" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8">
+      <c r="B191" t="s">
+        <v>315</v>
+      </c>
+      <c r="C191" t="n">
         <v>4</v>
       </c>
-      <c r="D181" t="s">
-        <v>84</v>
-      </c>
-      <c r="E181" t="s">
-        <v>19</v>
-      </c>
-      <c r="F181" t="s">
-        <v>19</v>
-      </c>
-      <c r="G181" t="s">
-        <v>19</v>
-      </c>
-      <c r="H181" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8">
-      <c r="A183" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8">
-      <c r="B184" t="s">
-        <v>313</v>
-      </c>
-      <c r="C184" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="D184" t="s">
-        <v>223</v>
-      </c>
-      <c r="E184" t="s">
-        <v>57</v>
-      </c>
-      <c r="F184" t="s">
-        <v>314</v>
-      </c>
-      <c r="G184" t="s">
-        <v>19</v>
-      </c>
-      <c r="H184" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8">
-      <c r="A186" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8">
-      <c r="B187" t="s">
-        <v>316</v>
-      </c>
-      <c r="C187" t="n">
-        <v>2.6645</v>
-      </c>
-      <c r="D187" t="s">
-        <v>190</v>
-      </c>
-      <c r="E187" t="s">
-        <v>317</v>
-      </c>
-      <c r="F187" t="s">
-        <v>318</v>
-      </c>
-      <c r="G187" t="s">
-        <v>319</v>
-      </c>
-      <c r="H187" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8">
-      <c r="A189" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8">
-      <c r="B190" t="s">
-        <v>322</v>
-      </c>
-      <c r="C190" t="n">
-        <v>2.5535</v>
-      </c>
-      <c r="D190" t="s">
-        <v>323</v>
-      </c>
-      <c r="E190" t="s">
-        <v>324</v>
-      </c>
-      <c r="F190" t="s">
+      <c r="D191" t="s">
+        <v>89</v>
+      </c>
+      <c r="E191" t="s">
+        <v>19</v>
+      </c>
+      <c r="F191" t="s">
+        <v>19</v>
+      </c>
+      <c r="G191" t="s">
+        <v>19</v>
+      </c>
+      <c r="H191" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8">
+      <c r="A193" t="s">
         <v>325</v>
-      </c>
-      <c r="G190" t="s">
-        <v>326</v>
-      </c>
-      <c r="H190" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8">
-      <c r="A192" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8">
-      <c r="B193" t="s">
-        <v>328</v>
-      </c>
-      <c r="C193" t="n">
-        <v>2.8577</v>
-      </c>
-      <c r="D193" t="s">
-        <v>329</v>
-      </c>
-      <c r="E193" t="s">
-        <v>330</v>
-      </c>
-      <c r="F193" t="s">
-        <v>331</v>
-      </c>
-      <c r="G193" t="s">
-        <v>19</v>
-      </c>
-      <c r="H193" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="194" spans="1:8">
       <c r="B194" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="C194" t="n">
-        <v>2.6757</v>
+        <v>3.2</v>
       </c>
       <c r="D194" t="s">
-        <v>333</v>
+        <v>238</v>
       </c>
       <c r="E194" t="s">
-        <v>334</v>
+        <v>62</v>
       </c>
       <c r="F194" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="G194" t="s">
-        <v>336</v>
+        <v>19</v>
       </c>
       <c r="H194" t="s">
         <v>19</v>
@@ -4009,124 +4057,83 @@
     </row>
     <row r="196" spans="1:8">
       <c r="A196" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
     </row>
     <row r="197" spans="1:8">
       <c r="B197" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="C197" t="n">
-        <v>2.825</v>
+        <v>2.6645</v>
       </c>
       <c r="D197" t="s">
-        <v>302</v>
+        <v>200</v>
       </c>
       <c r="E197" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="F197" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="G197" t="s">
-        <v>94</v>
+        <v>332</v>
       </c>
       <c r="H197" t="s">
-        <v>19</v>
+        <v>333</v>
       </c>
     </row>
     <row r="199" spans="1:8">
       <c r="A199" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
     </row>
     <row r="200" spans="1:8">
       <c r="B200" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="C200" t="n">
-        <v>3.824</v>
+        <v>2.5535</v>
       </c>
       <c r="D200" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="E200" t="s">
-        <v>69</v>
+        <v>337</v>
       </c>
       <c r="F200" t="s">
-        <v>19</v>
+        <v>338</v>
       </c>
       <c r="G200" t="s">
-        <v>19</v>
+        <v>339</v>
       </c>
       <c r="H200" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8">
-      <c r="B201" t="s">
-        <v>344</v>
-      </c>
-      <c r="C201" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="D201" t="s">
-        <v>345</v>
-      </c>
-      <c r="E201" t="s">
-        <v>346</v>
-      </c>
-      <c r="F201" t="s">
-        <v>19</v>
-      </c>
-      <c r="G201" t="s">
-        <v>347</v>
-      </c>
-      <c r="H201" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
     </row>
     <row r="202" spans="1:8">
-      <c r="B202" t="s">
-        <v>289</v>
-      </c>
-      <c r="C202" t="n">
-        <v>3.588</v>
-      </c>
-      <c r="D202" t="s">
-        <v>68</v>
-      </c>
-      <c r="E202" t="s">
-        <v>348</v>
-      </c>
-      <c r="F202" t="s">
-        <v>19</v>
-      </c>
-      <c r="G202" t="s">
-        <v>19</v>
-      </c>
-      <c r="H202" t="s">
-        <v>19</v>
+      <c r="A202" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="203" spans="1:8">
       <c r="B203" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="C203" t="n">
-        <v>3.286</v>
+        <v>2.8577</v>
       </c>
       <c r="D203" t="s">
-        <v>57</v>
+        <v>342</v>
       </c>
       <c r="E203" t="s">
-        <v>188</v>
+        <v>343</v>
       </c>
       <c r="F203" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="G203" t="s">
-        <v>350</v>
+        <v>19</v>
       </c>
       <c r="H203" t="s">
         <v>19</v>
@@ -4134,22 +4141,22 @@
     </row>
     <row r="204" spans="1:8">
       <c r="B204" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="C204" t="n">
-        <v>3.929</v>
+        <v>2.6757</v>
       </c>
       <c r="D204" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="E204" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="F204" t="s">
-        <v>19</v>
+        <v>348</v>
       </c>
       <c r="G204" t="s">
-        <v>19</v>
+        <v>349</v>
       </c>
       <c r="H204" t="s">
         <v>19</v>
@@ -4157,100 +4164,141 @@
     </row>
     <row r="206" spans="1:8">
       <c r="A206" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="207" spans="1:8">
       <c r="B207" t="s">
+        <v>351</v>
+      </c>
+      <c r="C207" t="n">
+        <v>2.825</v>
+      </c>
+      <c r="D207" t="s">
+        <v>316</v>
+      </c>
+      <c r="E207" t="s">
+        <v>352</v>
+      </c>
+      <c r="F207" t="s">
+        <v>353</v>
+      </c>
+      <c r="G207" t="s">
+        <v>100</v>
+      </c>
+      <c r="H207" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8">
+      <c r="A209" t="s">
         <v>354</v>
       </c>
-      <c r="C207" t="n">
-        <v>2.8257</v>
-      </c>
-      <c r="D207" t="s">
+    </row>
+    <row r="210" spans="1:8">
+      <c r="B210" t="s">
         <v>355</v>
       </c>
-      <c r="E207" t="s">
+      <c r="C210" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="D210" t="s">
         <v>356</v>
       </c>
-      <c r="F207" t="s">
-        <v>30</v>
-      </c>
-      <c r="G207" t="s">
-        <v>132</v>
-      </c>
-      <c r="H207" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8">
-      <c r="B208" t="s">
-        <v>357</v>
-      </c>
-      <c r="C208" t="n">
-        <v>2.733</v>
-      </c>
-      <c r="D208" t="s">
-        <v>190</v>
-      </c>
-      <c r="E208" t="s">
-        <v>179</v>
-      </c>
-      <c r="F208" t="s">
-        <v>358</v>
-      </c>
-      <c r="G208" t="s">
-        <v>347</v>
-      </c>
-      <c r="H208" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8">
-      <c r="A210" t="s">
-        <v>359</v>
+      <c r="E210" t="s">
+        <v>146</v>
+      </c>
+      <c r="F210" t="s">
+        <v>19</v>
+      </c>
+      <c r="G210" t="s">
+        <v>148</v>
+      </c>
+      <c r="H210" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="211" spans="1:8">
       <c r="B211" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="C211" t="n">
-        <v>3.7165</v>
+        <v>3.588</v>
       </c>
       <c r="D211" t="s">
+        <v>73</v>
+      </c>
+      <c r="E211" t="s">
+        <v>52</v>
+      </c>
+      <c r="F211" t="s">
+        <v>19</v>
+      </c>
+      <c r="G211" t="s">
+        <v>19</v>
+      </c>
+      <c r="H211" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8">
+      <c r="B212" t="s">
+        <v>357</v>
+      </c>
+      <c r="C212" t="n">
+        <v>3.286</v>
+      </c>
+      <c r="D212" t="s">
+        <v>62</v>
+      </c>
+      <c r="E212" t="s">
+        <v>198</v>
+      </c>
+      <c r="F212" t="s">
+        <v>358</v>
+      </c>
+      <c r="G212" t="s">
+        <v>358</v>
+      </c>
+      <c r="H212" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8">
+      <c r="B213" t="s">
+        <v>359</v>
+      </c>
+      <c r="C213" t="n">
+        <v>3.929</v>
+      </c>
+      <c r="D213" t="s">
         <v>360</v>
       </c>
-      <c r="E211" t="s">
-        <v>361</v>
-      </c>
-      <c r="F211" t="s">
-        <v>19</v>
-      </c>
-      <c r="G211" t="s">
-        <v>19</v>
-      </c>
-      <c r="H211" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8">
-      <c r="A213" t="s">
-        <v>362</v>
+      <c r="E213" t="s">
+        <v>358</v>
+      </c>
+      <c r="F213" t="s">
+        <v>19</v>
+      </c>
+      <c r="G213" t="s">
+        <v>19</v>
+      </c>
+      <c r="H213" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="214" spans="1:8">
       <c r="B214" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C214" t="n">
-        <v>3.562</v>
+        <v>3.824</v>
       </c>
       <c r="D214" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E214" t="s">
-        <v>365</v>
+        <v>74</v>
       </c>
       <c r="F214" t="s">
         <v>19</v>
@@ -4264,263 +4312,263 @@
     </row>
     <row r="216" spans="1:8">
       <c r="A216" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="217" spans="1:8">
       <c r="B217" t="s">
-        <v>220</v>
+        <v>364</v>
       </c>
       <c r="C217" t="n">
+        <v>2.733</v>
+      </c>
+      <c r="D217" t="s">
+        <v>200</v>
+      </c>
+      <c r="E217" t="s">
+        <v>189</v>
+      </c>
+      <c r="F217" t="s">
+        <v>365</v>
+      </c>
+      <c r="G217" t="s">
+        <v>148</v>
+      </c>
+      <c r="H217" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8">
+      <c r="B218" t="s">
+        <v>366</v>
+      </c>
+      <c r="C218" t="n">
+        <v>2.8257</v>
+      </c>
+      <c r="D218" t="s">
+        <v>367</v>
+      </c>
+      <c r="E218" t="s">
+        <v>368</v>
+      </c>
+      <c r="F218" t="s">
+        <v>30</v>
+      </c>
+      <c r="G218" t="s">
+        <v>138</v>
+      </c>
+      <c r="H218" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8">
+      <c r="A220" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8">
+      <c r="B221" t="s">
+        <v>326</v>
+      </c>
+      <c r="C221" t="n">
+        <v>3.7165</v>
+      </c>
+      <c r="D221" t="s">
+        <v>370</v>
+      </c>
+      <c r="E221" t="s">
+        <v>371</v>
+      </c>
+      <c r="F221" t="s">
+        <v>19</v>
+      </c>
+      <c r="G221" t="s">
+        <v>19</v>
+      </c>
+      <c r="H221" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8">
+      <c r="A223" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8">
+      <c r="B224" t="s">
+        <v>373</v>
+      </c>
+      <c r="C224" t="n">
+        <v>3.562</v>
+      </c>
+      <c r="D224" t="s">
+        <v>374</v>
+      </c>
+      <c r="E224" t="s">
+        <v>375</v>
+      </c>
+      <c r="F224" t="s">
+        <v>19</v>
+      </c>
+      <c r="G224" t="s">
+        <v>19</v>
+      </c>
+      <c r="H224" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8">
+      <c r="A226" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8">
+      <c r="B227" t="s">
+        <v>235</v>
+      </c>
+      <c r="C227" t="n">
         <v>2.944</v>
       </c>
-      <c r="D217" t="s">
-        <v>207</v>
-      </c>
-      <c r="E217" t="s">
-        <v>367</v>
-      </c>
-      <c r="F217" t="s">
+      <c r="D227" t="s">
+        <v>217</v>
+      </c>
+      <c r="E227" t="s">
+        <v>377</v>
+      </c>
+      <c r="F227" t="s">
         <v>30</v>
       </c>
-      <c r="G217" t="s">
-        <v>208</v>
-      </c>
-      <c r="H217" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8">
-      <c r="A219" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8">
-      <c r="B220" t="s">
-        <v>369</v>
-      </c>
-      <c r="C220" t="n">
-        <v>3.2095</v>
-      </c>
-      <c r="D220" t="s">
-        <v>151</v>
-      </c>
-      <c r="E220" t="s">
-        <v>370</v>
-      </c>
-      <c r="F220" t="s">
-        <v>371</v>
-      </c>
-      <c r="G220" t="s">
-        <v>372</v>
-      </c>
-      <c r="H220" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8">
-      <c r="A222" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="223" spans="1:8">
-      <c r="B223" t="s">
-        <v>374</v>
-      </c>
-      <c r="C223" t="n">
-        <v>2.467</v>
-      </c>
-      <c r="D223" t="s">
-        <v>346</v>
-      </c>
-      <c r="E223" t="s">
-        <v>375</v>
-      </c>
-      <c r="F223" t="s">
-        <v>376</v>
-      </c>
-      <c r="G223" t="s">
-        <v>190</v>
-      </c>
-      <c r="H223" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="225" spans="1:8">
-      <c r="A225" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="226" spans="1:8">
-      <c r="B226" t="s">
+      <c r="G227" t="s">
+        <v>218</v>
+      </c>
+      <c r="H227" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8">
+      <c r="A229" t="s">
         <v>378</v>
-      </c>
-      <c r="C226" t="n">
-        <v>2.9672</v>
-      </c>
-      <c r="D226" t="s">
-        <v>379</v>
-      </c>
-      <c r="E226" t="s">
-        <v>380</v>
-      </c>
-      <c r="F226" t="s">
-        <v>381</v>
-      </c>
-      <c r="G226" t="s">
-        <v>382</v>
-      </c>
-      <c r="H226" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="228" spans="1:8">
-      <c r="A228" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="229" spans="1:8">
-      <c r="B229" t="s">
-        <v>378</v>
-      </c>
-      <c r="C229" t="n">
-        <v>3.647</v>
-      </c>
-      <c r="D229" t="s">
-        <v>384</v>
-      </c>
-      <c r="E229" t="s">
-        <v>385</v>
-      </c>
-      <c r="F229" t="s">
-        <v>19</v>
-      </c>
-      <c r="G229" t="s">
-        <v>19</v>
-      </c>
-      <c r="H229" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="230" spans="1:8">
       <c r="B230" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="C230" t="n">
-        <v>3.6</v>
+        <v>3.2095</v>
       </c>
       <c r="D230" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="E230" t="s">
-        <v>247</v>
+        <v>380</v>
       </c>
       <c r="F230" t="s">
-        <v>19</v>
+        <v>381</v>
       </c>
       <c r="G230" t="s">
-        <v>19</v>
+        <v>382</v>
       </c>
       <c r="H230" t="s">
-        <v>19</v>
+        <v>333</v>
       </c>
     </row>
     <row r="232" spans="1:8">
       <c r="A232" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="233" spans="1:8">
       <c r="B233" t="s">
+        <v>384</v>
+      </c>
+      <c r="C233" t="n">
+        <v>2.467</v>
+      </c>
+      <c r="D233" t="s">
+        <v>146</v>
+      </c>
+      <c r="E233" t="s">
+        <v>385</v>
+      </c>
+      <c r="F233" t="s">
+        <v>386</v>
+      </c>
+      <c r="G233" t="s">
+        <v>200</v>
+      </c>
+      <c r="H233" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8">
+      <c r="A235" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8">
+      <c r="B236" t="s">
         <v>388</v>
       </c>
-      <c r="C233" t="n">
-        <v>4</v>
-      </c>
-      <c r="D233" t="s">
-        <v>84</v>
-      </c>
-      <c r="E233" t="s">
-        <v>19</v>
-      </c>
-      <c r="F233" t="s">
-        <v>19</v>
-      </c>
-      <c r="G233" t="s">
-        <v>19</v>
-      </c>
-      <c r="H233" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="234" spans="1:8">
-      <c r="B234" t="s">
-        <v>328</v>
-      </c>
-      <c r="C234" t="n">
-        <v>4</v>
-      </c>
-      <c r="D234" t="s">
-        <v>84</v>
-      </c>
-      <c r="E234" t="s">
-        <v>19</v>
-      </c>
-      <c r="F234" t="s">
-        <v>19</v>
-      </c>
-      <c r="G234" t="s">
-        <v>19</v>
-      </c>
-      <c r="H234" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="236" spans="1:8">
-      <c r="A236" t="s">
+      <c r="C236" t="n">
+        <v>2.9672</v>
+      </c>
+      <c r="D236" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="237" spans="1:8">
-      <c r="B237" t="s">
-        <v>374</v>
-      </c>
-      <c r="C237" t="n">
-        <v>3.571</v>
-      </c>
-      <c r="D237" t="s">
-        <v>309</v>
-      </c>
-      <c r="E237" t="s">
+      <c r="E236" t="s">
         <v>390</v>
       </c>
-      <c r="F237" t="s">
-        <v>19</v>
-      </c>
-      <c r="G237" t="s">
-        <v>19</v>
-      </c>
-      <c r="H237" t="s">
-        <v>19</v>
+      <c r="F236" t="s">
+        <v>391</v>
+      </c>
+      <c r="G236" t="s">
+        <v>392</v>
+      </c>
+      <c r="H236" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8">
+      <c r="A238" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="239" spans="1:8">
-      <c r="A239" t="s">
-        <v>391</v>
+      <c r="B239" t="s">
+        <v>388</v>
+      </c>
+      <c r="C239" t="n">
+        <v>3.647</v>
+      </c>
+      <c r="D239" t="s">
+        <v>394</v>
+      </c>
+      <c r="E239" t="s">
+        <v>395</v>
+      </c>
+      <c r="F239" t="s">
+        <v>19</v>
+      </c>
+      <c r="G239" t="s">
+        <v>19</v>
+      </c>
+      <c r="H239" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="240" spans="1:8">
       <c r="B240" t="s">
-        <v>369</v>
+        <v>396</v>
       </c>
       <c r="C240" t="n">
-        <v>3.4835</v>
+        <v>3.6</v>
       </c>
       <c r="D240" t="s">
-        <v>392</v>
+        <v>189</v>
       </c>
       <c r="E240" t="s">
-        <v>393</v>
+        <v>262</v>
       </c>
       <c r="F240" t="s">
         <v>19</v>
@@ -4534,153 +4582,153 @@
     </row>
     <row r="242" spans="1:8">
       <c r="A242" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
     </row>
     <row r="243" spans="1:8">
       <c r="B243" t="s">
-        <v>328</v>
+        <v>398</v>
       </c>
       <c r="C243" t="n">
+        <v>4</v>
+      </c>
+      <c r="D243" t="s">
+        <v>89</v>
+      </c>
+      <c r="E243" t="s">
+        <v>19</v>
+      </c>
+      <c r="F243" t="s">
+        <v>19</v>
+      </c>
+      <c r="G243" t="s">
+        <v>19</v>
+      </c>
+      <c r="H243" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8">
+      <c r="B244" t="s">
+        <v>341</v>
+      </c>
+      <c r="C244" t="n">
+        <v>4</v>
+      </c>
+      <c r="D244" t="s">
+        <v>89</v>
+      </c>
+      <c r="E244" t="s">
+        <v>19</v>
+      </c>
+      <c r="F244" t="s">
+        <v>19</v>
+      </c>
+      <c r="G244" t="s">
+        <v>19</v>
+      </c>
+      <c r="H244" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8">
+      <c r="A246" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8">
+      <c r="B247" t="s">
+        <v>384</v>
+      </c>
+      <c r="C247" t="n">
+        <v>3.571</v>
+      </c>
+      <c r="D247" t="s">
+        <v>322</v>
+      </c>
+      <c r="E247" t="s">
+        <v>400</v>
+      </c>
+      <c r="F247" t="s">
+        <v>19</v>
+      </c>
+      <c r="G247" t="s">
+        <v>19</v>
+      </c>
+      <c r="H247" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8">
+      <c r="A249" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8">
+      <c r="B250" t="s">
+        <v>379</v>
+      </c>
+      <c r="C250" t="n">
+        <v>3.4835</v>
+      </c>
+      <c r="D250" t="s">
+        <v>402</v>
+      </c>
+      <c r="E250" t="s">
+        <v>403</v>
+      </c>
+      <c r="F250" t="s">
+        <v>19</v>
+      </c>
+      <c r="G250" t="s">
+        <v>19</v>
+      </c>
+      <c r="H250" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8">
+      <c r="A252" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8">
+      <c r="B253" t="s">
+        <v>341</v>
+      </c>
+      <c r="C253" t="n">
         <v>3.684</v>
       </c>
-      <c r="D243" t="s">
-        <v>395</v>
-      </c>
-      <c r="E243" t="s">
-        <v>88</v>
-      </c>
-      <c r="F243" t="s">
-        <v>19</v>
-      </c>
-      <c r="G243" t="s">
-        <v>19</v>
-      </c>
-      <c r="H243" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="245" spans="1:8">
-      <c r="A245" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="246" spans="1:8">
-      <c r="B246" t="s">
-        <v>397</v>
-      </c>
-      <c r="C246" t="n">
-        <v>4</v>
-      </c>
-      <c r="D246" t="s">
-        <v>84</v>
-      </c>
-      <c r="E246" t="s">
-        <v>19</v>
-      </c>
-      <c r="F246" t="s">
-        <v>19</v>
-      </c>
-      <c r="G246" t="s">
-        <v>19</v>
-      </c>
-      <c r="H246" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="248" spans="1:8">
-      <c r="A248" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="249" spans="1:8">
-      <c r="B249" t="s">
-        <v>322</v>
-      </c>
-      <c r="C249" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="D249" t="s">
-        <v>399</v>
-      </c>
-      <c r="E249" t="s">
-        <v>190</v>
-      </c>
-      <c r="F249" t="s">
-        <v>19</v>
-      </c>
-      <c r="G249" t="s">
-        <v>19</v>
-      </c>
-      <c r="H249" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="251" spans="1:8">
-      <c r="A251" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="252" spans="1:8">
-      <c r="B252" t="s">
-        <v>401</v>
-      </c>
-      <c r="C252" t="n">
-        <v>4</v>
-      </c>
-      <c r="D252" t="s">
-        <v>84</v>
-      </c>
-      <c r="E252" t="s">
-        <v>19</v>
-      </c>
-      <c r="F252" t="s">
-        <v>19</v>
-      </c>
-      <c r="G252" t="s">
-        <v>19</v>
-      </c>
-      <c r="H252" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="254" spans="1:8">
-      <c r="A254" t="s">
-        <v>402</v>
+      <c r="D253" t="s">
+        <v>405</v>
+      </c>
+      <c r="E253" t="s">
+        <v>94</v>
+      </c>
+      <c r="F253" t="s">
+        <v>19</v>
+      </c>
+      <c r="G253" t="s">
+        <v>19</v>
+      </c>
+      <c r="H253" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="255" spans="1:8">
-      <c r="B255" t="s">
-        <v>403</v>
-      </c>
-      <c r="C255" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="D255" t="s">
-        <v>399</v>
-      </c>
-      <c r="E255" t="s">
-        <v>19</v>
-      </c>
-      <c r="F255" t="s">
-        <v>190</v>
-      </c>
-      <c r="G255" t="s">
-        <v>19</v>
-      </c>
-      <c r="H255" t="s">
-        <v>19</v>
+      <c r="A255" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="256" spans="1:8">
       <c r="B256" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="C256" t="n">
         <v>4</v>
       </c>
       <c r="D256" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E256" t="s">
         <v>19</v>
@@ -4697,24 +4745,24 @@
     </row>
     <row r="258" spans="1:8">
       <c r="A258" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
     </row>
     <row r="259" spans="1:8">
       <c r="B259" t="s">
-        <v>406</v>
+        <v>335</v>
       </c>
       <c r="C259" t="n">
-        <v>3.469</v>
+        <v>3.9</v>
       </c>
       <c r="D259" t="s">
-        <v>57</v>
+        <v>409</v>
       </c>
       <c r="E259" t="s">
-        <v>407</v>
+        <v>200</v>
       </c>
       <c r="F259" t="s">
-        <v>204</v>
+        <v>19</v>
       </c>
       <c r="G259" t="s">
         <v>19</v>
@@ -4725,21 +4773,21 @@
     </row>
     <row r="261" spans="1:8">
       <c r="A261" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
     </row>
     <row r="262" spans="1:8">
       <c r="B262" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="C262" t="n">
-        <v>3.857</v>
+        <v>4</v>
       </c>
       <c r="D262" t="s">
-        <v>409</v>
+        <v>89</v>
       </c>
       <c r="E262" t="s">
-        <v>254</v>
+        <v>19</v>
       </c>
       <c r="F262" t="s">
         <v>19</v>
@@ -4753,156 +4801,156 @@
     </row>
     <row r="264" spans="1:8">
       <c r="A264" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
     </row>
     <row r="265" spans="1:8">
       <c r="B265" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C265" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="D265" t="s">
+        <v>409</v>
+      </c>
+      <c r="E265" t="s">
+        <v>19</v>
+      </c>
+      <c r="F265" t="s">
+        <v>200</v>
+      </c>
+      <c r="G265" t="s">
+        <v>19</v>
+      </c>
+      <c r="H265" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8">
+      <c r="B266" t="s">
+        <v>414</v>
+      </c>
+      <c r="C266" t="n">
+        <v>4</v>
+      </c>
+      <c r="D266" t="s">
+        <v>89</v>
+      </c>
+      <c r="E266" t="s">
+        <v>19</v>
+      </c>
+      <c r="F266" t="s">
+        <v>19</v>
+      </c>
+      <c r="G266" t="s">
+        <v>19</v>
+      </c>
+      <c r="H266" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8">
+      <c r="A268" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8">
+      <c r="B269" t="s">
+        <v>416</v>
+      </c>
+      <c r="C269" t="n">
+        <v>3.469</v>
+      </c>
+      <c r="D269" t="s">
+        <v>62</v>
+      </c>
+      <c r="E269" t="s">
+        <v>417</v>
+      </c>
+      <c r="F269" t="s">
+        <v>214</v>
+      </c>
+      <c r="G269" t="s">
+        <v>19</v>
+      </c>
+      <c r="H269" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8">
+      <c r="A271" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8">
+      <c r="B272" t="s">
+        <v>416</v>
+      </c>
+      <c r="C272" t="n">
+        <v>3.857</v>
+      </c>
+      <c r="D272" t="s">
+        <v>419</v>
+      </c>
+      <c r="E272" t="s">
+        <v>269</v>
+      </c>
+      <c r="F272" t="s">
+        <v>19</v>
+      </c>
+      <c r="G272" t="s">
+        <v>19</v>
+      </c>
+      <c r="H272" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8">
+      <c r="A274" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8">
+      <c r="B275" t="s">
+        <v>421</v>
+      </c>
+      <c r="C275" t="n">
         <v>3.5</v>
       </c>
-      <c r="D265" t="s">
-        <v>57</v>
-      </c>
-      <c r="E265" t="s">
-        <v>57</v>
-      </c>
-      <c r="F265" t="s">
-        <v>19</v>
-      </c>
-      <c r="G265" t="s">
-        <v>19</v>
-      </c>
-      <c r="H265" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="267" spans="1:8">
-      <c r="A267" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="268" spans="1:8">
-      <c r="B268" t="s">
-        <v>369</v>
-      </c>
-      <c r="C268" t="n">
-        <v>3.778</v>
-      </c>
-      <c r="D268" t="s">
-        <v>413</v>
-      </c>
-      <c r="E268" t="s">
-        <v>30</v>
-      </c>
-      <c r="F268" t="s">
-        <v>19</v>
-      </c>
-      <c r="G268" t="s">
-        <v>19</v>
-      </c>
-      <c r="H268" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="270" spans="1:8">
-      <c r="A270" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="271" spans="1:8">
-      <c r="B271" t="s">
-        <v>415</v>
-      </c>
-      <c r="C271" t="n">
-        <v>4</v>
-      </c>
-      <c r="D271" t="s">
-        <v>84</v>
-      </c>
-      <c r="E271" t="s">
-        <v>19</v>
-      </c>
-      <c r="F271" t="s">
-        <v>19</v>
-      </c>
-      <c r="G271" t="s">
-        <v>19</v>
-      </c>
-      <c r="H271" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="273" spans="1:8">
-      <c r="A273" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="274" spans="1:8">
-      <c r="B274" t="s">
-        <v>417</v>
-      </c>
-      <c r="C274" t="n">
-        <v>2.881</v>
-      </c>
-      <c r="D274" t="s">
-        <v>147</v>
-      </c>
-      <c r="E274" t="s">
-        <v>418</v>
-      </c>
-      <c r="F274" t="s">
-        <v>350</v>
-      </c>
-      <c r="G274" t="s">
-        <v>254</v>
-      </c>
-      <c r="H274" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="276" spans="1:8">
-      <c r="A276" t="s">
-        <v>419</v>
+      <c r="D275" t="s">
+        <v>62</v>
+      </c>
+      <c r="E275" t="s">
+        <v>62</v>
+      </c>
+      <c r="F275" t="s">
+        <v>19</v>
+      </c>
+      <c r="G275" t="s">
+        <v>19</v>
+      </c>
+      <c r="H275" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="277" spans="1:8">
-      <c r="B277" t="s">
-        <v>420</v>
-      </c>
-      <c r="C277" t="n">
-        <v>2.7945</v>
-      </c>
-      <c r="D277" t="s">
-        <v>421</v>
-      </c>
-      <c r="E277" t="s">
+      <c r="A277" t="s">
         <v>422</v>
-      </c>
-      <c r="F277" t="s">
-        <v>340</v>
-      </c>
-      <c r="G277" t="s">
-        <v>90</v>
-      </c>
-      <c r="H277" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="278" spans="1:8">
       <c r="B278" t="s">
-        <v>250</v>
+        <v>379</v>
       </c>
       <c r="C278" t="n">
-        <v>3.583</v>
+        <v>3.778</v>
       </c>
       <c r="D278" t="s">
         <v>423</v>
       </c>
       <c r="E278" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="F278" t="s">
         <v>19</v>
@@ -4911,32 +4959,32 @@
         <v>19</v>
       </c>
       <c r="H278" t="s">
-        <v>424</v>
+        <v>19</v>
       </c>
     </row>
     <row r="280" spans="1:8">
       <c r="A280" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="281" spans="1:8">
       <c r="B281" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C281" t="n">
-        <v>3.0875</v>
+        <v>4</v>
       </c>
       <c r="D281" t="s">
-        <v>427</v>
+        <v>89</v>
       </c>
       <c r="E281" t="s">
-        <v>428</v>
+        <v>19</v>
       </c>
       <c r="F281" t="s">
-        <v>429</v>
+        <v>19</v>
       </c>
       <c r="G281" t="s">
-        <v>430</v>
+        <v>19</v>
       </c>
       <c r="H281" t="s">
         <v>19</v>
@@ -4944,684 +4992,875 @@
     </row>
     <row r="283" spans="1:8">
       <c r="A283" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
     </row>
     <row r="284" spans="1:8">
       <c r="B284" t="s">
-        <v>250</v>
+        <v>427</v>
       </c>
       <c r="C284" t="n">
-        <v>2.667</v>
+        <v>2.881</v>
       </c>
       <c r="D284" t="s">
-        <v>57</v>
+        <v>157</v>
       </c>
       <c r="E284" t="s">
-        <v>19</v>
+        <v>428</v>
       </c>
       <c r="F284" t="s">
-        <v>97</v>
+        <v>358</v>
       </c>
       <c r="G284" t="s">
-        <v>19</v>
+        <v>269</v>
       </c>
       <c r="H284" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
     </row>
     <row r="286" spans="1:8">
       <c r="A286" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="287" spans="1:8">
       <c r="B287" t="s">
+        <v>51</v>
+      </c>
+      <c r="C287" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="D287" t="s">
+        <v>430</v>
+      </c>
+      <c r="E287" t="s">
+        <v>431</v>
+      </c>
+      <c r="F287" t="s">
+        <v>432</v>
+      </c>
+      <c r="G287" t="s">
         <v>433</v>
       </c>
-      <c r="C287" t="n">
-        <v>2.722</v>
-      </c>
-      <c r="D287" t="s">
-        <v>29</v>
-      </c>
-      <c r="E287" t="s">
-        <v>58</v>
-      </c>
-      <c r="F287" t="s">
-        <v>207</v>
-      </c>
-      <c r="G287" t="s">
-        <v>132</v>
-      </c>
       <c r="H287" t="s">
-        <v>208</v>
+        <v>434</v>
       </c>
     </row>
     <row r="289" spans="1:8">
       <c r="A289" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="290" spans="1:8">
       <c r="B290" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C290" t="n">
-        <v>3.704</v>
+        <v>2.7945</v>
       </c>
       <c r="D290" t="s">
-        <v>360</v>
+        <v>437</v>
       </c>
       <c r="E290" t="s">
-        <v>30</v>
+        <v>438</v>
       </c>
       <c r="F290" t="s">
-        <v>436</v>
+        <v>353</v>
       </c>
       <c r="G290" t="s">
-        <v>19</v>
+        <v>96</v>
       </c>
       <c r="H290" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="292" spans="1:8">
-      <c r="A292" t="s">
-        <v>437</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8">
+      <c r="B291" t="s">
+        <v>265</v>
+      </c>
+      <c r="C291" t="n">
+        <v>3.583</v>
+      </c>
+      <c r="D291" t="s">
+        <v>439</v>
+      </c>
+      <c r="E291" t="s">
+        <v>61</v>
+      </c>
+      <c r="F291" t="s">
+        <v>19</v>
+      </c>
+      <c r="G291" t="s">
+        <v>19</v>
+      </c>
+      <c r="H291" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="293" spans="1:8">
-      <c r="B293" t="s">
-        <v>51</v>
-      </c>
-      <c r="C293" t="n">
-        <v>3.167</v>
-      </c>
-      <c r="D293" t="s">
-        <v>58</v>
-      </c>
-      <c r="E293" t="s">
-        <v>21</v>
-      </c>
-      <c r="F293" t="s">
-        <v>19</v>
-      </c>
-      <c r="G293" t="s">
-        <v>19</v>
-      </c>
-      <c r="H293" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="295" spans="1:8">
-      <c r="A295" t="s">
-        <v>438</v>
+      <c r="A293" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8">
+      <c r="B294" t="s">
+        <v>442</v>
+      </c>
+      <c r="C294" t="n">
+        <v>3.0875</v>
+      </c>
+      <c r="D294" t="s">
+        <v>443</v>
+      </c>
+      <c r="E294" t="s">
+        <v>444</v>
+      </c>
+      <c r="F294" t="s">
+        <v>445</v>
+      </c>
+      <c r="G294" t="s">
+        <v>446</v>
+      </c>
+      <c r="H294" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="296" spans="1:8">
-      <c r="B296" t="s">
-        <v>439</v>
-      </c>
-      <c r="C296" t="n">
-        <v>3.087</v>
-      </c>
-      <c r="D296" t="s">
-        <v>440</v>
-      </c>
-      <c r="E296" t="s">
-        <v>441</v>
-      </c>
-      <c r="F296" t="s">
-        <v>441</v>
-      </c>
-      <c r="G296" t="s">
-        <v>129</v>
-      </c>
-      <c r="H296" t="s">
-        <v>19</v>
+      <c r="A296" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="297" spans="1:8">
       <c r="B297" t="s">
-        <v>442</v>
+        <v>265</v>
       </c>
       <c r="C297" t="n">
-        <v>3.2927</v>
+        <v>2.667</v>
       </c>
       <c r="D297" t="s">
-        <v>443</v>
+        <v>62</v>
       </c>
       <c r="E297" t="s">
-        <v>444</v>
+        <v>19</v>
       </c>
       <c r="F297" t="s">
-        <v>445</v>
+        <v>103</v>
       </c>
       <c r="G297" t="s">
-        <v>446</v>
+        <v>19</v>
       </c>
       <c r="H297" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="298" spans="1:8">
-      <c r="B298" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8">
+      <c r="A299" t="s">
         <v>448</v>
-      </c>
-      <c r="C298" t="n">
-        <v>3</v>
-      </c>
-      <c r="D298" t="s">
-        <v>57</v>
-      </c>
-      <c r="E298" t="s">
-        <v>449</v>
-      </c>
-      <c r="F298" t="s">
-        <v>450</v>
-      </c>
-      <c r="G298" t="s">
-        <v>451</v>
-      </c>
-      <c r="H298" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="299" spans="1:8">
-      <c r="B299" t="s">
-        <v>453</v>
-      </c>
-      <c r="C299" t="n">
-        <v>2.385</v>
-      </c>
-      <c r="D299" t="s">
-        <v>454</v>
-      </c>
-      <c r="E299" t="s">
-        <v>455</v>
-      </c>
-      <c r="F299" t="s">
-        <v>456</v>
-      </c>
-      <c r="G299" t="s">
-        <v>454</v>
-      </c>
-      <c r="H299" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="300" spans="1:8">
       <c r="B300" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="C300" t="n">
-        <v>2.614</v>
+        <v>2.722</v>
       </c>
       <c r="D300" t="s">
-        <v>459</v>
+        <v>29</v>
       </c>
       <c r="E300" t="s">
-        <v>460</v>
+        <v>63</v>
       </c>
       <c r="F300" t="s">
-        <v>340</v>
+        <v>217</v>
       </c>
       <c r="G300" t="s">
-        <v>461</v>
+        <v>138</v>
       </c>
       <c r="H300" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="301" spans="1:8">
-      <c r="B301" t="s">
-        <v>463</v>
-      </c>
-      <c r="C301" t="n">
-        <v>3.326</v>
-      </c>
-      <c r="D301" t="s">
-        <v>464</v>
-      </c>
-      <c r="E301" t="s">
-        <v>465</v>
-      </c>
-      <c r="F301" t="s">
-        <v>466</v>
-      </c>
-      <c r="G301" t="s">
-        <v>467</v>
-      </c>
-      <c r="H301" t="s">
-        <v>467</v>
+        <v>218</v>
       </c>
     </row>
     <row r="302" spans="1:8">
-      <c r="B302" t="s">
-        <v>417</v>
-      </c>
-      <c r="C302" t="n">
-        <v>2.882</v>
-      </c>
-      <c r="D302" t="s">
-        <v>468</v>
-      </c>
-      <c r="E302" t="s">
-        <v>469</v>
-      </c>
-      <c r="F302" t="s">
-        <v>67</v>
-      </c>
-      <c r="G302" t="s">
-        <v>470</v>
-      </c>
-      <c r="H302" t="s">
-        <v>19</v>
+      <c r="A302" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="303" spans="1:8">
       <c r="B303" t="s">
-        <v>471</v>
+        <v>451</v>
       </c>
       <c r="C303" t="n">
-        <v>3.636</v>
+        <v>3.704</v>
       </c>
       <c r="D303" t="s">
-        <v>472</v>
+        <v>370</v>
       </c>
       <c r="E303" t="s">
-        <v>79</v>
+        <v>30</v>
       </c>
       <c r="F303" t="s">
-        <v>473</v>
+        <v>452</v>
       </c>
       <c r="G303" t="s">
-        <v>474</v>
+        <v>19</v>
       </c>
       <c r="H303" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="304" spans="1:8">
-      <c r="B304" t="s">
-        <v>435</v>
-      </c>
-      <c r="C304" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="D304" t="s">
-        <v>475</v>
-      </c>
-      <c r="E304" t="s">
-        <v>476</v>
-      </c>
-      <c r="F304" t="s">
-        <v>476</v>
-      </c>
-      <c r="G304" t="s">
-        <v>477</v>
-      </c>
-      <c r="H304" t="s">
-        <v>478</v>
+    <row r="305" spans="1:8">
+      <c r="A305" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="306" spans="1:8">
-      <c r="A306" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="307" spans="1:8">
-      <c r="B307" t="s">
-        <v>463</v>
-      </c>
-      <c r="C307" t="n">
-        <v>3.6513</v>
-      </c>
-      <c r="D307" t="s">
-        <v>480</v>
-      </c>
-      <c r="E307" t="s">
-        <v>481</v>
-      </c>
-      <c r="F307" t="s">
-        <v>482</v>
-      </c>
-      <c r="G307" t="s">
-        <v>483</v>
-      </c>
-      <c r="H307" t="s">
-        <v>484</v>
+      <c r="B306" t="s">
+        <v>56</v>
+      </c>
+      <c r="C306" t="n">
+        <v>3.167</v>
+      </c>
+      <c r="D306" t="s">
+        <v>63</v>
+      </c>
+      <c r="E306" t="s">
+        <v>21</v>
+      </c>
+      <c r="F306" t="s">
+        <v>19</v>
+      </c>
+      <c r="G306" t="s">
+        <v>19</v>
+      </c>
+      <c r="H306" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8">
+      <c r="A308" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="309" spans="1:8">
-      <c r="A309" t="s">
-        <v>485</v>
+      <c r="B309" t="s">
+        <v>455</v>
+      </c>
+      <c r="C309" t="n">
+        <v>3.087</v>
+      </c>
+      <c r="D309" t="s">
+        <v>456</v>
+      </c>
+      <c r="E309" t="s">
+        <v>457</v>
+      </c>
+      <c r="F309" t="s">
+        <v>457</v>
+      </c>
+      <c r="G309" t="s">
+        <v>135</v>
+      </c>
+      <c r="H309" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="310" spans="1:8">
       <c r="B310" t="s">
-        <v>486</v>
+        <v>458</v>
       </c>
       <c r="C310" t="n">
-        <v>3.471</v>
+        <v>3.2927</v>
       </c>
       <c r="D310" t="s">
-        <v>487</v>
+        <v>459</v>
       </c>
       <c r="E310" t="s">
-        <v>348</v>
+        <v>460</v>
       </c>
       <c r="F310" t="s">
-        <v>262</v>
+        <v>461</v>
       </c>
       <c r="G310" t="s">
-        <v>19</v>
+        <v>462</v>
       </c>
       <c r="H310" t="s">
-        <v>19</v>
+        <v>463</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8">
+      <c r="B311" t="s">
+        <v>464</v>
+      </c>
+      <c r="C311" t="n">
+        <v>3</v>
+      </c>
+      <c r="D311" t="s">
+        <v>62</v>
+      </c>
+      <c r="E311" t="s">
+        <v>465</v>
+      </c>
+      <c r="F311" t="s">
+        <v>466</v>
+      </c>
+      <c r="G311" t="s">
+        <v>467</v>
+      </c>
+      <c r="H311" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="312" spans="1:8">
-      <c r="A312" t="s">
-        <v>488</v>
+      <c r="B312" t="s">
+        <v>469</v>
+      </c>
+      <c r="C312" t="n">
+        <v>2.385</v>
+      </c>
+      <c r="D312" t="s">
+        <v>470</v>
+      </c>
+      <c r="E312" t="s">
+        <v>471</v>
+      </c>
+      <c r="F312" t="s">
+        <v>472</v>
+      </c>
+      <c r="G312" t="s">
+        <v>470</v>
+      </c>
+      <c r="H312" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="313" spans="1:8">
       <c r="B313" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="C313" t="n">
-        <v>3.188</v>
+        <v>2.614</v>
       </c>
       <c r="D313" t="s">
-        <v>365</v>
+        <v>475</v>
       </c>
       <c r="E313" t="s">
-        <v>241</v>
+        <v>476</v>
       </c>
       <c r="F313" t="s">
-        <v>56</v>
+        <v>353</v>
       </c>
       <c r="G313" t="s">
-        <v>19</v>
+        <v>477</v>
       </c>
       <c r="H313" t="s">
-        <v>19</v>
+        <v>478</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8">
+      <c r="B314" t="s">
+        <v>479</v>
+      </c>
+      <c r="C314" t="n">
+        <v>3.326</v>
+      </c>
+      <c r="D314" t="s">
+        <v>480</v>
+      </c>
+      <c r="E314" t="s">
+        <v>481</v>
+      </c>
+      <c r="F314" t="s">
+        <v>482</v>
+      </c>
+      <c r="G314" t="s">
+        <v>483</v>
+      </c>
+      <c r="H314" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="315" spans="1:8">
-      <c r="A315" t="s">
-        <v>490</v>
+      <c r="B315" t="s">
+        <v>427</v>
+      </c>
+      <c r="C315" t="n">
+        <v>2.882</v>
+      </c>
+      <c r="D315" t="s">
+        <v>484</v>
+      </c>
+      <c r="E315" t="s">
+        <v>485</v>
+      </c>
+      <c r="F315" t="s">
+        <v>72</v>
+      </c>
+      <c r="G315" t="s">
+        <v>486</v>
+      </c>
+      <c r="H315" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="316" spans="1:8">
       <c r="B316" t="s">
+        <v>487</v>
+      </c>
+      <c r="C316" t="n">
+        <v>3.636</v>
+      </c>
+      <c r="D316" t="s">
+        <v>488</v>
+      </c>
+      <c r="E316" t="s">
+        <v>84</v>
+      </c>
+      <c r="F316" t="s">
+        <v>489</v>
+      </c>
+      <c r="G316" t="s">
+        <v>490</v>
+      </c>
+      <c r="H316" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8">
+      <c r="B317" t="s">
+        <v>451</v>
+      </c>
+      <c r="C317" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="D317" t="s">
+        <v>434</v>
+      </c>
+      <c r="E317" t="s">
         <v>491</v>
       </c>
-      <c r="C316" t="n">
+      <c r="F317" t="s">
+        <v>491</v>
+      </c>
+      <c r="G317" t="s">
+        <v>432</v>
+      </c>
+      <c r="H317" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8">
+      <c r="A319" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8">
+      <c r="B320" t="s">
+        <v>479</v>
+      </c>
+      <c r="C320" t="n">
+        <v>3.6513</v>
+      </c>
+      <c r="D320" t="s">
+        <v>493</v>
+      </c>
+      <c r="E320" t="s">
+        <v>494</v>
+      </c>
+      <c r="F320" t="s">
+        <v>495</v>
+      </c>
+      <c r="G320" t="s">
+        <v>496</v>
+      </c>
+      <c r="H320" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8">
+      <c r="A322" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8">
+      <c r="B323" t="s">
+        <v>499</v>
+      </c>
+      <c r="C323" t="n">
+        <v>3.568</v>
+      </c>
+      <c r="D323" t="s">
+        <v>500</v>
+      </c>
+      <c r="E323" t="s">
+        <v>49</v>
+      </c>
+      <c r="F323" t="s">
+        <v>489</v>
+      </c>
+      <c r="G323" t="s">
+        <v>501</v>
+      </c>
+      <c r="H323" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8">
+      <c r="A325" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8">
+      <c r="B326" t="s">
+        <v>503</v>
+      </c>
+      <c r="C326" t="n">
+        <v>3.471</v>
+      </c>
+      <c r="D326" t="s">
+        <v>53</v>
+      </c>
+      <c r="E326" t="s">
+        <v>52</v>
+      </c>
+      <c r="F326" t="s">
+        <v>54</v>
+      </c>
+      <c r="G326" t="s">
+        <v>19</v>
+      </c>
+      <c r="H326" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8">
+      <c r="A328" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8">
+      <c r="B329" t="s">
+        <v>505</v>
+      </c>
+      <c r="C329" t="n">
+        <v>3.188</v>
+      </c>
+      <c r="D329" t="s">
+        <v>375</v>
+      </c>
+      <c r="E329" t="s">
+        <v>256</v>
+      </c>
+      <c r="F329" t="s">
+        <v>61</v>
+      </c>
+      <c r="G329" t="s">
+        <v>19</v>
+      </c>
+      <c r="H329" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8">
+      <c r="A331" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8">
+      <c r="B332" t="s">
+        <v>507</v>
+      </c>
+      <c r="C332" t="n">
         <v>2.78</v>
       </c>
-      <c r="D316" t="s">
-        <v>492</v>
-      </c>
-      <c r="E316" t="s">
-        <v>493</v>
-      </c>
-      <c r="F316" t="s">
-        <v>494</v>
-      </c>
-      <c r="G316" t="s">
-        <v>475</v>
-      </c>
-      <c r="H316" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="318" spans="1:8">
-      <c r="A318" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="319" spans="1:8">
-      <c r="B319" t="s">
-        <v>496</v>
-      </c>
-      <c r="C319" t="n">
+      <c r="D332" t="s">
+        <v>508</v>
+      </c>
+      <c r="E332" t="s">
+        <v>147</v>
+      </c>
+      <c r="F332" t="s">
+        <v>509</v>
+      </c>
+      <c r="G332" t="s">
+        <v>434</v>
+      </c>
+      <c r="H332" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8">
+      <c r="A334" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8">
+      <c r="B335" t="s">
+        <v>499</v>
+      </c>
+      <c r="C335" t="n">
+        <v>3.375</v>
+      </c>
+      <c r="D335" t="s">
+        <v>62</v>
+      </c>
+      <c r="E335" t="s">
+        <v>78</v>
+      </c>
+      <c r="F335" t="s">
+        <v>467</v>
+      </c>
+      <c r="G335" t="s">
+        <v>19</v>
+      </c>
+      <c r="H335" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8">
+      <c r="A337" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8">
+      <c r="B338" t="s">
+        <v>512</v>
+      </c>
+      <c r="C338" t="n">
         <v>3.556</v>
       </c>
-      <c r="D319" t="s">
-        <v>497</v>
-      </c>
-      <c r="E319" t="s">
-        <v>97</v>
-      </c>
-      <c r="F319" t="s">
-        <v>208</v>
-      </c>
-      <c r="G319" t="s">
-        <v>19</v>
-      </c>
-      <c r="H319" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="321" spans="1:8">
-      <c r="A321" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="322" spans="1:8">
-      <c r="B322" t="s">
-        <v>448</v>
-      </c>
-      <c r="C322" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="D322" t="s">
-        <v>179</v>
-      </c>
-      <c r="E322" t="s">
-        <v>247</v>
-      </c>
-      <c r="F322" t="s">
-        <v>19</v>
-      </c>
-      <c r="G322" t="s">
-        <v>19</v>
-      </c>
-      <c r="H322" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="324" spans="1:8">
-      <c r="A324" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="325" spans="1:8">
-      <c r="B325" t="s">
-        <v>500</v>
-      </c>
-      <c r="C325" t="n">
-        <v>4</v>
-      </c>
-      <c r="D325" t="s">
-        <v>84</v>
-      </c>
-      <c r="E325" t="s">
-        <v>19</v>
-      </c>
-      <c r="F325" t="s">
-        <v>19</v>
-      </c>
-      <c r="G325" t="s">
-        <v>19</v>
-      </c>
-      <c r="H325" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="327" spans="1:8">
-      <c r="A327" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="328" spans="1:8">
-      <c r="B328" t="s">
-        <v>500</v>
-      </c>
-      <c r="C328" t="n">
-        <v>3.667</v>
-      </c>
-      <c r="D328" t="s">
-        <v>21</v>
-      </c>
-      <c r="E328" t="s">
-        <v>19</v>
-      </c>
-      <c r="F328" t="s">
-        <v>58</v>
-      </c>
-      <c r="G328" t="s">
-        <v>19</v>
-      </c>
-      <c r="H328" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="330" spans="1:8">
-      <c r="A330" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="331" spans="1:8">
-      <c r="B331" t="s">
-        <v>486</v>
-      </c>
-      <c r="C331" t="n">
-        <v>3.969</v>
-      </c>
-      <c r="D331" t="s">
-        <v>503</v>
-      </c>
-      <c r="E331" t="s">
-        <v>44</v>
-      </c>
-      <c r="F331" t="s">
-        <v>19</v>
-      </c>
-      <c r="G331" t="s">
-        <v>19</v>
-      </c>
-      <c r="H331" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="333" spans="1:8">
-      <c r="A333" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="334" spans="1:8">
-      <c r="B334" t="s">
-        <v>433</v>
-      </c>
-      <c r="C334" t="n">
-        <v>3.692</v>
-      </c>
-      <c r="D334" t="s">
-        <v>505</v>
-      </c>
-      <c r="E334" t="s">
-        <v>506</v>
-      </c>
-      <c r="F334" t="s">
-        <v>19</v>
-      </c>
-      <c r="G334" t="s">
-        <v>19</v>
-      </c>
-      <c r="H334" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="336" spans="1:8">
-      <c r="A336" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="337" spans="1:8">
-      <c r="B337" t="s">
-        <v>508</v>
-      </c>
-      <c r="C337" t="n">
-        <v>3.889</v>
-      </c>
-      <c r="D337" t="s">
-        <v>509</v>
-      </c>
-      <c r="E337" t="s">
-        <v>132</v>
-      </c>
-      <c r="F337" t="s">
-        <v>19</v>
-      </c>
-      <c r="G337" t="s">
-        <v>19</v>
-      </c>
-      <c r="H337" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="339" spans="1:8">
-      <c r="A339" t="s">
-        <v>510</v>
+      <c r="D338" t="s">
+        <v>513</v>
+      </c>
+      <c r="E338" t="s">
+        <v>103</v>
+      </c>
+      <c r="F338" t="s">
+        <v>218</v>
+      </c>
+      <c r="G338" t="s">
+        <v>19</v>
+      </c>
+      <c r="H338" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="340" spans="1:8">
-      <c r="B340" t="s">
-        <v>458</v>
-      </c>
-      <c r="C340" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="D340" t="s">
-        <v>511</v>
-      </c>
-      <c r="E340" t="s">
-        <v>180</v>
-      </c>
-      <c r="F340" t="s">
-        <v>19</v>
-      </c>
-      <c r="G340" t="s">
-        <v>19</v>
-      </c>
-      <c r="H340" t="s">
-        <v>19</v>
+      <c r="A340" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="341" spans="1:8">
       <c r="B341" t="s">
-        <v>512</v>
+        <v>464</v>
       </c>
       <c r="C341" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="D341" t="s">
+        <v>189</v>
+      </c>
+      <c r="E341" t="s">
+        <v>262</v>
+      </c>
+      <c r="F341" t="s">
+        <v>19</v>
+      </c>
+      <c r="G341" t="s">
+        <v>19</v>
+      </c>
+      <c r="H341" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="343" spans="1:8">
+      <c r="A343" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="344" spans="1:8">
+      <c r="B344" t="s">
+        <v>516</v>
+      </c>
+      <c r="C344" t="n">
         <v>4</v>
       </c>
-      <c r="D341" t="s">
-        <v>84</v>
-      </c>
-      <c r="E341" t="s">
-        <v>19</v>
-      </c>
-      <c r="F341" t="s">
-        <v>19</v>
-      </c>
-      <c r="G341" t="s">
-        <v>19</v>
-      </c>
-      <c r="H341" t="s">
+      <c r="D344" t="s">
+        <v>89</v>
+      </c>
+      <c r="E344" t="s">
+        <v>19</v>
+      </c>
+      <c r="F344" t="s">
+        <v>19</v>
+      </c>
+      <c r="G344" t="s">
+        <v>19</v>
+      </c>
+      <c r="H344" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="346" spans="1:8">
+      <c r="A346" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="347" spans="1:8">
+      <c r="B347" t="s">
+        <v>516</v>
+      </c>
+      <c r="C347" t="n">
+        <v>3.667</v>
+      </c>
+      <c r="D347" t="s">
+        <v>21</v>
+      </c>
+      <c r="E347" t="s">
+        <v>19</v>
+      </c>
+      <c r="F347" t="s">
+        <v>63</v>
+      </c>
+      <c r="G347" t="s">
+        <v>19</v>
+      </c>
+      <c r="H347" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="349" spans="1:8">
+      <c r="A349" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="350" spans="1:8">
+      <c r="B350" t="s">
+        <v>503</v>
+      </c>
+      <c r="C350" t="n">
+        <v>3.969</v>
+      </c>
+      <c r="D350" t="s">
+        <v>519</v>
+      </c>
+      <c r="E350" t="s">
+        <v>44</v>
+      </c>
+      <c r="F350" t="s">
+        <v>19</v>
+      </c>
+      <c r="G350" t="s">
+        <v>19</v>
+      </c>
+      <c r="H350" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="352" spans="1:8">
+      <c r="A352" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="353" spans="1:8">
+      <c r="B353" t="s">
+        <v>449</v>
+      </c>
+      <c r="C353" t="n">
+        <v>3.692</v>
+      </c>
+      <c r="D353" t="s">
+        <v>521</v>
+      </c>
+      <c r="E353" t="s">
+        <v>522</v>
+      </c>
+      <c r="F353" t="s">
+        <v>19</v>
+      </c>
+      <c r="G353" t="s">
+        <v>19</v>
+      </c>
+      <c r="H353" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="355" spans="1:8">
+      <c r="A355" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="356" spans="1:8">
+      <c r="B356" t="s">
+        <v>524</v>
+      </c>
+      <c r="C356" t="n">
+        <v>3.889</v>
+      </c>
+      <c r="D356" t="s">
+        <v>525</v>
+      </c>
+      <c r="E356" t="s">
+        <v>138</v>
+      </c>
+      <c r="F356" t="s">
+        <v>19</v>
+      </c>
+      <c r="G356" t="s">
+        <v>19</v>
+      </c>
+      <c r="H356" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="358" spans="1:8">
+      <c r="A358" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="359" spans="1:8">
+      <c r="B359" t="s">
+        <v>474</v>
+      </c>
+      <c r="C359" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="D359" t="s">
+        <v>527</v>
+      </c>
+      <c r="E359" t="s">
+        <v>190</v>
+      </c>
+      <c r="F359" t="s">
+        <v>19</v>
+      </c>
+      <c r="G359" t="s">
+        <v>19</v>
+      </c>
+      <c r="H359" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="360" spans="1:8">
+      <c r="B360" t="s">
+        <v>528</v>
+      </c>
+      <c r="C360" t="n">
+        <v>4</v>
+      </c>
+      <c r="D360" t="s">
+        <v>89</v>
+      </c>
+      <c r="E360" t="s">
+        <v>19</v>
+      </c>
+      <c r="F360" t="s">
+        <v>19</v>
+      </c>
+      <c r="G360" t="s">
+        <v>19</v>
+      </c>
+      <c r="H360" t="s">
         <v>19</v>
       </c>
     </row>
